--- a/res_ssyk/data/ssyk-2012-koder2.xlsx
+++ b/res_ssyk/data/ssyk-2012-koder2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\staff\Dropbox\projekt\Vertel_projekt\github-vertelab\odoo-base\res_ssyk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D961ECA-35B0-49AD-88A7-A58D7E952A88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB84ED-0C4E-4DF6-97F3-7FA7599952BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1140" windowWidth="25890" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="975" windowWidth="29610" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ssyk.csv" sheetId="4" r:id="rId1"/>
@@ -3025,7 +3025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4264,7 +4266,7 @@
         <v>ssyk_210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C84" s="8">
         <v>210</v>
@@ -4775,7 +4777,7 @@
         <v>ssyk_310</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C118" s="8">
         <v>310</v>

--- a/res_ssyk/data/ssyk-2012-koder2.xlsx
+++ b/res_ssyk/data/ssyk-2012-koder2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\staff\Dropbox\projekt\Vertel_projekt\github-vertelab\odoo-base\res_ssyk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB84ED-0C4E-4DF6-97F3-7FA7599952BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D3149-3DA0-439F-8E8A-848C3718C6C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="975" windowWidth="29610" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ssyk.csv" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'res_ssyk.csv'!$A$1:$D$644</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1907,9 +1907,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>parent_id</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2547,6 +2544,9 @@
   </si>
   <si>
     <t>Rubrik</t>
+  </si>
+  <si>
+    <t>parent_id / External id</t>
   </si>
 </sst>
 </file>
@@ -3025,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3043,13 +3043,13 @@
         <v>621</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>623</v>
+        <v>836</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>622</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>ssyk_11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C11" s="1">
         <v>11</v>
@@ -3181,7 +3181,7 @@
         <v>ssyk_12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C12" s="1">
         <v>12</v>
@@ -3196,7 +3196,7 @@
         <v>ssyk_13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C13" s="1">
         <v>13</v>
@@ -3211,7 +3211,7 @@
         <v>ssyk_14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C14" s="1">
         <v>14</v>
@@ -3226,7 +3226,7 @@
         <v>ssyk_15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -3241,7 +3241,7 @@
         <v>ssyk_16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -3256,7 +3256,7 @@
         <v>ssyk_17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C17" s="1">
         <v>17</v>
@@ -3271,7 +3271,7 @@
         <v>ssyk_21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C18" s="1">
         <v>21</v>
@@ -3286,7 +3286,7 @@
         <v>ssyk_22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C19" s="1">
         <v>22</v>
@@ -3301,7 +3301,7 @@
         <v>ssyk_23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C20" s="1">
         <v>23</v>
@@ -3316,7 +3316,7 @@
         <v>ssyk_24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C21" s="1">
         <v>24</v>
@@ -3332,7 +3332,7 @@
         <v>ssyk_25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C22" s="1">
         <v>25</v>
@@ -3347,7 +3347,7 @@
         <v>ssyk_26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C23" s="1">
         <v>26</v>
@@ -3362,7 +3362,7 @@
         <v>ssyk_31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C24" s="1">
         <v>31</v>
@@ -3377,7 +3377,7 @@
         <v>ssyk_32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C25" s="1">
         <v>32</v>
@@ -3392,7 +3392,7 @@
         <v>ssyk_33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C26" s="1">
         <v>33</v>
@@ -3407,7 +3407,7 @@
         <v>ssyk_34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C27" s="1">
         <v>34</v>
@@ -3422,7 +3422,7 @@
         <v>ssyk_35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C28" s="1">
         <v>35</v>
@@ -3437,7 +3437,7 @@
         <v>ssyk_41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C29" s="1">
         <v>41</v>
@@ -3452,7 +3452,7 @@
         <v>ssyk_42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C30" s="1">
         <v>42</v>
@@ -3467,7 +3467,7 @@
         <v>ssyk_43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" s="1">
         <v>43</v>
@@ -3482,7 +3482,7 @@
         <v>ssyk_44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C32" s="1">
         <v>44</v>
@@ -3497,7 +3497,7 @@
         <v>ssyk_51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C33" s="1">
         <v>51</v>
@@ -3512,7 +3512,7 @@
         <v>ssyk_52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C34" s="1">
         <v>52</v>
@@ -3527,7 +3527,7 @@
         <v>ssyk_53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C35" s="1">
         <v>53</v>
@@ -3542,7 +3542,7 @@
         <v>ssyk_54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C36" s="1">
         <v>54</v>
@@ -3557,7 +3557,7 @@
         <v>ssyk_61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C37" s="1">
         <v>61</v>
@@ -3572,7 +3572,7 @@
         <v>ssyk_62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="1">
         <v>62</v>
@@ -3587,7 +3587,7 @@
         <v>ssyk_71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C39" s="1">
         <v>71</v>
@@ -3602,7 +3602,7 @@
         <v>ssyk_72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C40" s="1">
         <v>72</v>
@@ -3618,7 +3618,7 @@
         <v>ssyk_73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C41" s="1">
         <v>73</v>
@@ -3633,7 +3633,7 @@
         <v>ssyk_74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C42" s="1">
         <v>74</v>
@@ -3648,7 +3648,7 @@
         <v>ssyk_75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C43" s="1">
         <v>75</v>
@@ -3663,7 +3663,7 @@
         <v>ssyk_76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C44" s="1">
         <v>76</v>
@@ -3678,7 +3678,7 @@
         <v>ssyk_81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C45" s="1">
         <v>81</v>
@@ -3693,7 +3693,7 @@
         <v>ssyk_82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C46" s="1">
         <v>82</v>
@@ -3708,7 +3708,7 @@
         <v>ssyk_83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C47" s="1">
         <v>83</v>
@@ -3723,7 +3723,7 @@
         <v>ssyk_91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C48" s="1">
         <v>91</v>
@@ -3738,7 +3738,7 @@
         <v>ssyk_92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C49" s="1">
         <v>92</v>
@@ -3753,7 +3753,7 @@
         <v>ssyk_93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C50" s="1">
         <v>93</v>
@@ -3768,7 +3768,7 @@
         <v>ssyk_94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C51" s="1">
         <v>94</v>
@@ -3783,7 +3783,7 @@
         <v>ssyk_95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C52" s="1">
         <v>95</v>
@@ -3798,7 +3798,7 @@
         <v>ssyk_96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C53" s="1">
         <v>96</v>
@@ -3813,7 +3813,7 @@
         <v>ssyk_111</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C54" s="1">
         <v>111</v>
@@ -3828,7 +3828,7 @@
         <v>ssyk_112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C55" s="1">
         <v>112</v>
@@ -3843,7 +3843,7 @@
         <v>ssyk_121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C56" s="1">
         <v>121</v>
@@ -3858,7 +3858,7 @@
         <v>ssyk_122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C57" s="1">
         <v>122</v>
@@ -3873,7 +3873,7 @@
         <v>ssyk_123</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C58" s="1">
         <v>123</v>
@@ -3888,7 +3888,7 @@
         <v>ssyk_124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C59" s="1">
         <v>124</v>
@@ -3903,7 +3903,7 @@
         <v>ssyk_125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C60" s="1">
         <v>125</v>
@@ -3918,7 +3918,7 @@
         <v>ssyk_129</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C61" s="1">
         <v>129</v>
@@ -3933,7 +3933,7 @@
         <v>ssyk_131</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C62" s="1">
         <v>131</v>
@@ -3948,7 +3948,7 @@
         <v>ssyk_132</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C63" s="1">
         <v>132</v>
@@ -3963,7 +3963,7 @@
         <v>ssyk_133</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C64" s="1">
         <v>133</v>
@@ -3979,7 +3979,7 @@
         <v>ssyk_134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C65" s="1">
         <v>134</v>
@@ -3994,7 +3994,7 @@
         <v>ssyk_135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C66" s="1">
         <v>135</v>
@@ -4009,7 +4009,7 @@
         <v>ssyk_136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C67" s="1">
         <v>136</v>
@@ -4025,7 +4025,7 @@
         <v>ssyk_137</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C68" s="1">
         <v>137</v>
@@ -4040,7 +4040,7 @@
         <v>ssyk_138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C69" s="1">
         <v>138</v>
@@ -4055,7 +4055,7 @@
         <v>ssyk_141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C70" s="1">
         <v>141</v>
@@ -4070,7 +4070,7 @@
         <v>ssyk_142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C71" s="1">
         <v>142</v>
@@ -4085,7 +4085,7 @@
         <v>ssyk_149</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C72" s="1">
         <v>149</v>
@@ -4100,7 +4100,7 @@
         <v>ssyk_151</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C73" s="1">
         <v>151</v>
@@ -4116,7 +4116,7 @@
         <v>ssyk_152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C74" s="1">
         <v>152</v>
@@ -4131,7 +4131,7 @@
         <v>ssyk_153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C75" s="1">
         <v>153</v>
@@ -4146,7 +4146,7 @@
         <v>ssyk_154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C76" s="1">
         <v>154</v>
@@ -4161,7 +4161,7 @@
         <v>ssyk_159</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C77" s="1">
         <v>159</v>
@@ -4176,7 +4176,7 @@
         <v>ssyk_161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C78" s="1">
         <v>161</v>
@@ -4191,7 +4191,7 @@
         <v>ssyk_171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C79" s="1">
         <v>171</v>
@@ -4206,7 +4206,7 @@
         <v>ssyk_172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C80" s="1">
         <v>172</v>
@@ -4221,7 +4221,7 @@
         <v>ssyk_173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C81" s="1">
         <v>173</v>
@@ -4236,7 +4236,7 @@
         <v>ssyk_174</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C82" s="1">
         <v>174</v>
@@ -4251,7 +4251,7 @@
         <v>ssyk_179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C83" s="1">
         <v>179</v>
@@ -4266,7 +4266,7 @@
         <v>ssyk_210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C84" s="8">
         <v>210</v>
@@ -4281,7 +4281,7 @@
         <v>ssyk_211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C85" s="1">
         <v>211</v>
@@ -4296,7 +4296,7 @@
         <v>ssyk_212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C86" s="1">
         <v>212</v>
@@ -4311,7 +4311,7 @@
         <v>ssyk_213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C87" s="1">
         <v>213</v>
@@ -4326,7 +4326,7 @@
         <v>ssyk_214</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C88" s="1">
         <v>214</v>
@@ -4341,7 +4341,7 @@
         <v>ssyk_215</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C89" s="1">
         <v>215</v>
@@ -4356,7 +4356,7 @@
         <v>ssyk_216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C90" s="1">
         <v>216</v>
@@ -4371,7 +4371,7 @@
         <v>ssyk_217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C91" s="1">
         <v>217</v>
@@ -4386,7 +4386,7 @@
         <v>ssyk_218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C92" s="1">
         <v>218</v>
@@ -4402,7 +4402,7 @@
         <v>ssyk_221</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C93" s="1">
         <v>221</v>
@@ -4417,7 +4417,7 @@
         <v>ssyk_222</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C94" s="1">
         <v>222</v>
@@ -4432,7 +4432,7 @@
         <v>ssyk_223</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C95" s="1">
         <v>223</v>
@@ -4447,7 +4447,7 @@
         <v>ssyk_224</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C96" s="1">
         <v>224</v>
@@ -4462,7 +4462,7 @@
         <v>ssyk_225</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C97" s="1">
         <v>225</v>
@@ -4477,7 +4477,7 @@
         <v>ssyk_226</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C98" s="1">
         <v>226</v>
@@ -4492,7 +4492,7 @@
         <v>ssyk_227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C99" s="1">
         <v>227</v>
@@ -4507,7 +4507,7 @@
         <v>ssyk_228</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C100" s="1">
         <v>228</v>
@@ -4522,7 +4522,7 @@
         <v>ssyk_231</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C101" s="1">
         <v>231</v>
@@ -4537,7 +4537,7 @@
         <v>ssyk_232</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C102" s="1">
         <v>232</v>
@@ -4552,7 +4552,7 @@
         <v>ssyk_233</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C103" s="1">
         <v>233</v>
@@ -4567,7 +4567,7 @@
         <v>ssyk_234</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C104" s="1">
         <v>234</v>
@@ -4582,7 +4582,7 @@
         <v>ssyk_235</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C105" s="1">
         <v>235</v>
@@ -4597,7 +4597,7 @@
         <v>ssyk_241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C106" s="1">
         <v>241</v>
@@ -4612,7 +4612,7 @@
         <v>ssyk_242</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C107" s="1">
         <v>242</v>
@@ -4627,7 +4627,7 @@
         <v>ssyk_243</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C108" s="1">
         <v>243</v>
@@ -4642,7 +4642,7 @@
         <v>ssyk_251</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C109" s="1">
         <v>251</v>
@@ -4657,7 +4657,7 @@
         <v>ssyk_252</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C110" s="1">
         <v>252</v>
@@ -4672,7 +4672,7 @@
         <v>ssyk_261</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C111" s="1">
         <v>261</v>
@@ -4687,7 +4687,7 @@
         <v>ssyk_262</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C112" s="1">
         <v>262</v>
@@ -4702,7 +4702,7 @@
         <v>ssyk_263</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C113" s="1">
         <v>263</v>
@@ -4717,7 +4717,7 @@
         <v>ssyk_264</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C114" s="1">
         <v>264</v>
@@ -4732,7 +4732,7 @@
         <v>ssyk_265</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C115" s="1">
         <v>265</v>
@@ -4747,7 +4747,7 @@
         <v>ssyk_266</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C116" s="1">
         <v>266</v>
@@ -4762,7 +4762,7 @@
         <v>ssyk_267</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C117" s="1">
         <v>267</v>
@@ -4777,7 +4777,7 @@
         <v>ssyk_310</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C118" s="8">
         <v>310</v>
@@ -4792,7 +4792,7 @@
         <v>ssyk_311</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C119" s="1">
         <v>311</v>
@@ -4807,7 +4807,7 @@
         <v>ssyk_312</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C120" s="1">
         <v>312</v>
@@ -4822,7 +4822,7 @@
         <v>ssyk_313</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C121" s="1">
         <v>313</v>
@@ -4837,7 +4837,7 @@
         <v>ssyk_314</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C122" s="1">
         <v>314</v>
@@ -4853,7 +4853,7 @@
         <v>ssyk_315</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C123" s="1">
         <v>315</v>
@@ -4869,7 +4869,7 @@
         <v>ssyk_321</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C124" s="1">
         <v>321</v>
@@ -4885,7 +4885,7 @@
         <v>ssyk_322</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C125" s="1">
         <v>322</v>
@@ -4901,7 +4901,7 @@
         <v>ssyk_323</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C126" s="1">
         <v>323</v>
@@ -4917,7 +4917,7 @@
         <v>ssyk_324</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C127" s="1">
         <v>324</v>
@@ -4932,7 +4932,7 @@
         <v>ssyk_325</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C128" s="1">
         <v>325</v>
@@ -4947,7 +4947,7 @@
         <v>ssyk_331</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C129" s="1">
         <v>331</v>
@@ -4962,7 +4962,7 @@
         <v>ssyk_332</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C130" s="1">
         <v>332</v>
@@ -4977,7 +4977,7 @@
         <v>ssyk_333</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C131" s="1">
         <v>333</v>
@@ -4992,7 +4992,7 @@
         <v>ssyk_334</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C132" s="1">
         <v>334</v>
@@ -5007,7 +5007,7 @@
         <v>ssyk_335</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C133" s="1">
         <v>335</v>
@@ -5022,7 +5022,7 @@
         <v>ssyk_336</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C134" s="1">
         <v>336</v>
@@ -5037,7 +5037,7 @@
         <v>ssyk_341</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C135" s="1">
         <v>341</v>
@@ -5052,7 +5052,7 @@
         <v>ssyk_342</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C136" s="1">
         <v>342</v>
@@ -5067,7 +5067,7 @@
         <v>ssyk_343</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C137" s="1">
         <v>343</v>
@@ -5082,7 +5082,7 @@
         <v>ssyk_344</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C138" s="1">
         <v>344</v>
@@ -5097,7 +5097,7 @@
         <v>ssyk_345</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C139" s="1">
         <v>345</v>
@@ -5112,7 +5112,7 @@
         <v>ssyk_351</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C140" s="1">
         <v>351</v>
@@ -5128,7 +5128,7 @@
         <v>ssyk_352</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C141" s="1">
         <v>352</v>
@@ -5143,7 +5143,7 @@
         <v>ssyk_411</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C142" s="1">
         <v>411</v>
@@ -5158,7 +5158,7 @@
         <v>ssyk_421</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C143" s="1">
         <v>421</v>
@@ -5173,7 +5173,7 @@
         <v>ssyk_422</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C144" s="1">
         <v>422</v>
@@ -5188,7 +5188,7 @@
         <v>ssyk_431</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C145" s="1">
         <v>431</v>
@@ -5203,7 +5203,7 @@
         <v>ssyk_432</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C146" s="1">
         <v>432</v>
@@ -5218,7 +5218,7 @@
         <v>ssyk_441</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C147" s="1">
         <v>441</v>
@@ -5233,7 +5233,7 @@
         <v>ssyk_442</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C148" s="1">
         <v>442</v>
@@ -5248,7 +5248,7 @@
         <v>ssyk_443</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C149" s="1">
         <v>443</v>
@@ -5263,7 +5263,7 @@
         <v>ssyk_511</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C150" s="1">
         <v>511</v>
@@ -5278,7 +5278,7 @@
         <v>ssyk_512</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C151" s="1">
         <v>512</v>
@@ -5293,7 +5293,7 @@
         <v>ssyk_513</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C152" s="1">
         <v>513</v>
@@ -5308,7 +5308,7 @@
         <v>ssyk_514</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C153" s="1">
         <v>514</v>
@@ -5323,7 +5323,7 @@
         <v>ssyk_515</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C154" s="1">
         <v>515</v>
@@ -5338,7 +5338,7 @@
         <v>ssyk_516</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C155" s="1">
         <v>516</v>
@@ -5353,7 +5353,7 @@
         <v>ssyk_521</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C156" s="1">
         <v>521</v>
@@ -5368,7 +5368,7 @@
         <v>ssyk_522</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C157" s="1">
         <v>522</v>
@@ -5383,7 +5383,7 @@
         <v>ssyk_523</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C158" s="1">
         <v>523</v>
@@ -5398,7 +5398,7 @@
         <v>ssyk_524</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C159" s="1">
         <v>524</v>
@@ -5414,7 +5414,7 @@
         <v>ssyk_531</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C160" s="1">
         <v>531</v>
@@ -5429,7 +5429,7 @@
         <v>ssyk_532</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C161" s="1">
         <v>532</v>
@@ -5444,7 +5444,7 @@
         <v>ssyk_533</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C162" s="1">
         <v>533</v>
@@ -5459,7 +5459,7 @@
         <v>ssyk_534</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C163" s="1">
         <v>534</v>
@@ -5474,7 +5474,7 @@
         <v>ssyk_535</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C164" s="1">
         <v>535</v>
@@ -5489,7 +5489,7 @@
         <v>ssyk_541</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C165" s="1">
         <v>541</v>
@@ -5504,7 +5504,7 @@
         <v>ssyk_611</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C166" s="1">
         <v>611</v>
@@ -5519,7 +5519,7 @@
         <v>ssyk_612</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C167" s="1">
         <v>612</v>
@@ -5534,7 +5534,7 @@
         <v>ssyk_613</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C168" s="1">
         <v>613</v>
@@ -5549,7 +5549,7 @@
         <v>ssyk_621</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C169" s="1">
         <v>621</v>
@@ -5564,7 +5564,7 @@
         <v>ssyk_622</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C170" s="1">
         <v>622</v>
@@ -5579,7 +5579,7 @@
         <v>ssyk_711</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C171" s="1">
         <v>711</v>
@@ -5594,7 +5594,7 @@
         <v>ssyk_712</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C172" s="1">
         <v>712</v>
@@ -5609,7 +5609,7 @@
         <v>ssyk_713</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C173" s="1">
         <v>713</v>
@@ -5624,7 +5624,7 @@
         <v>ssyk_721</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C174" s="1">
         <v>721</v>
@@ -5639,7 +5639,7 @@
         <v>ssyk_722</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C175" s="1">
         <v>722</v>
@@ -5654,7 +5654,7 @@
         <v>ssyk_723</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C176" s="1">
         <v>723</v>
@@ -5670,7 +5670,7 @@
         <v>ssyk_731</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C177" s="1">
         <v>731</v>
@@ -5686,7 +5686,7 @@
         <v>ssyk_732</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C178" s="1">
         <v>732</v>
@@ -5701,7 +5701,7 @@
         <v>ssyk_741</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C179" s="1">
         <v>741</v>
@@ -5717,7 +5717,7 @@
         <v>ssyk_742</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C180" s="1">
         <v>742</v>
@@ -5732,7 +5732,7 @@
         <v>ssyk_751</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C181" s="1">
         <v>751</v>
@@ -5747,7 +5747,7 @@
         <v>ssyk_752</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C182" s="1">
         <v>752</v>
@@ -5762,7 +5762,7 @@
         <v>ssyk_753</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C183" s="1">
         <v>753</v>
@@ -5777,7 +5777,7 @@
         <v>ssyk_761</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C184" s="1">
         <v>761</v>
@@ -5792,7 +5792,7 @@
         <v>ssyk_811</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C185" s="1">
         <v>811</v>
@@ -5807,7 +5807,7 @@
         <v>ssyk_812</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C186" s="1">
         <v>812</v>
@@ -5822,7 +5822,7 @@
         <v>ssyk_813</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C187" s="1">
         <v>813</v>
@@ -5837,7 +5837,7 @@
         <v>ssyk_814</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C188" s="1">
         <v>814</v>
@@ -5853,7 +5853,7 @@
         <v>ssyk_815</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C189" s="1">
         <v>815</v>
@@ -5868,7 +5868,7 @@
         <v>ssyk_816</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C190" s="1">
         <v>816</v>
@@ -5883,7 +5883,7 @@
         <v>ssyk_817</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C191" s="1">
         <v>817</v>
@@ -5898,7 +5898,7 @@
         <v>ssyk_818</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C192" s="1">
         <v>818</v>
@@ -5914,7 +5914,7 @@
         <v>ssyk_819</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C193" s="1">
         <v>819</v>
@@ -5929,7 +5929,7 @@
         <v>ssyk_821</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C194" s="1">
         <v>821</v>
@@ -5944,7 +5944,7 @@
         <v>ssyk_831</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C195" s="1">
         <v>831</v>
@@ -5959,7 +5959,7 @@
         <v>ssyk_832</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C196" s="1">
         <v>832</v>
@@ -5974,7 +5974,7 @@
         <v>ssyk_833</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C197" s="1">
         <v>833</v>
@@ -5989,7 +5989,7 @@
         <v>ssyk_834</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C198" s="1">
         <v>834</v>
@@ -6004,7 +6004,7 @@
         <v>ssyk_835</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C199" s="1">
         <v>835</v>
@@ -6020,7 +6020,7 @@
         <v>ssyk_911</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C200" s="1">
         <v>911</v>
@@ -6035,7 +6035,7 @@
         <v>ssyk_912</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C201" s="1">
         <v>912</v>
@@ -6050,7 +6050,7 @@
         <v>ssyk_921</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C202" s="1">
         <v>921</v>
@@ -6065,7 +6065,7 @@
         <v>ssyk_931</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C203" s="1">
         <v>931</v>
@@ -6080,7 +6080,7 @@
         <v>ssyk_932</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C204" s="1">
         <v>932</v>
@@ -6095,7 +6095,7 @@
         <v>ssyk_933</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C205" s="1">
         <v>933</v>
@@ -6110,7 +6110,7 @@
         <v>ssyk_941</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C206" s="1">
         <v>941</v>
@@ -6125,7 +6125,7 @@
         <v>ssyk_951</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C207" s="1">
         <v>951</v>
@@ -6140,7 +6140,7 @@
         <v>ssyk_952</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C208" s="1">
         <v>952</v>
@@ -6155,7 +6155,7 @@
         <v>ssyk_961</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C209" s="1">
         <v>961</v>
@@ -6170,7 +6170,7 @@
         <v>ssyk_962</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C210" s="1">
         <v>962</v>
@@ -6186,7 +6186,7 @@
         <v>ssyk_1111</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C211" s="1">
         <v>1111</v>
@@ -6201,7 +6201,7 @@
         <v>ssyk_1112</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C212" s="1">
         <v>1112</v>
@@ -6216,7 +6216,7 @@
         <v>ssyk_1113</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C213" s="1">
         <v>1113</v>
@@ -6231,7 +6231,7 @@
         <v>ssyk_1120</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C214" s="1">
         <v>1120</v>
@@ -6246,7 +6246,7 @@
         <v>ssyk_1211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C215" s="1">
         <v>1211</v>
@@ -6261,7 +6261,7 @@
         <v>ssyk_1212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C216" s="1">
         <v>1212</v>
@@ -6276,7 +6276,7 @@
         <v>ssyk_1221</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C217" s="1">
         <v>1221</v>
@@ -6291,7 +6291,7 @@
         <v>ssyk_1222</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C218" s="1">
         <v>1222</v>
@@ -6306,7 +6306,7 @@
         <v>ssyk_1230</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C219" s="1">
         <v>1230</v>
@@ -6321,7 +6321,7 @@
         <v>ssyk_1241</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C220" s="1">
         <v>1241</v>
@@ -6336,7 +6336,7 @@
         <v>ssyk_1242</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C221" s="1">
         <v>1242</v>
@@ -6351,7 +6351,7 @@
         <v>ssyk_1251</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C222" s="1">
         <v>1251</v>
@@ -6366,7 +6366,7 @@
         <v>ssyk_1252</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C223" s="1">
         <v>1252</v>
@@ -6381,7 +6381,7 @@
         <v>ssyk_1291</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C224" s="1">
         <v>1291</v>
@@ -6396,7 +6396,7 @@
         <v>ssyk_1292</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C225" s="1">
         <v>1292</v>
@@ -6411,7 +6411,7 @@
         <v>ssyk_1311</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C226" s="1">
         <v>1311</v>
@@ -6426,7 +6426,7 @@
         <v>ssyk_1312</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C227" s="1">
         <v>1312</v>
@@ -6441,7 +6441,7 @@
         <v>ssyk_1321</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C228" s="1">
         <v>1321</v>
@@ -6456,7 +6456,7 @@
         <v>ssyk_1322</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C229" s="1">
         <v>1322</v>
@@ -6471,7 +6471,7 @@
         <v>ssyk_1331</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C230" s="1">
         <v>1331</v>
@@ -6486,7 +6486,7 @@
         <v>ssyk_1332</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C231" s="1">
         <v>1332</v>
@@ -6501,7 +6501,7 @@
         <v>ssyk_1341</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C232" s="1">
         <v>1341</v>
@@ -6516,7 +6516,7 @@
         <v>ssyk_1342</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C233" s="1">
         <v>1342</v>
@@ -6531,7 +6531,7 @@
         <v>ssyk_1351</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C234" s="1">
         <v>1351</v>
@@ -6546,7 +6546,7 @@
         <v>ssyk_1352</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C235" s="1">
         <v>1352</v>
@@ -6561,7 +6561,7 @@
         <v>ssyk_1361</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C236" s="1">
         <v>1361</v>
@@ -6576,7 +6576,7 @@
         <v>ssyk_1362</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C237" s="1">
         <v>1362</v>
@@ -6592,7 +6592,7 @@
         <v>ssyk_1371</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C238" s="1">
         <v>1371</v>
@@ -6608,7 +6608,7 @@
         <v>ssyk_1372</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C239" s="1">
         <v>1372</v>
@@ -6624,7 +6624,7 @@
         <v>ssyk_1380</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C240" s="1">
         <v>1380</v>
@@ -6639,7 +6639,7 @@
         <v>ssyk_1411</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C241" s="1">
         <v>1411</v>
@@ -6654,7 +6654,7 @@
         <v>ssyk_1412</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C242" s="1">
         <v>1412</v>
@@ -6669,7 +6669,7 @@
         <v>ssyk_1421</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C243" s="1">
         <v>1421</v>
@@ -6684,7 +6684,7 @@
         <v>ssyk_1422</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C244" s="1">
         <v>1422</v>
@@ -6699,7 +6699,7 @@
         <v>ssyk_1491</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C245" s="1">
         <v>1491</v>
@@ -6714,7 +6714,7 @@
         <v>ssyk_1492</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C246" s="1">
         <v>1492</v>
@@ -6729,7 +6729,7 @@
         <v>ssyk_1511</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C247" s="1">
         <v>1511</v>
@@ -6744,7 +6744,7 @@
         <v>ssyk_1512</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C248" s="1">
         <v>1512</v>
@@ -6759,7 +6759,7 @@
         <v>ssyk_1521</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C249" s="1">
         <v>1521</v>
@@ -6774,7 +6774,7 @@
         <v>ssyk_1522</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C250" s="1">
         <v>1522</v>
@@ -6789,7 +6789,7 @@
         <v>ssyk_1531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C251" s="1">
         <v>1531</v>
@@ -6804,7 +6804,7 @@
         <v>ssyk_1532</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C252" s="1">
         <v>1532</v>
@@ -6819,7 +6819,7 @@
         <v>ssyk_1540</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C253" s="1">
         <v>1540</v>
@@ -6834,7 +6834,7 @@
         <v>ssyk_1591</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C254" s="1">
         <v>1591</v>
@@ -6849,7 +6849,7 @@
         <v>ssyk_1592</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C255" s="1">
         <v>1592</v>
@@ -6864,7 +6864,7 @@
         <v>ssyk_1611</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C256" s="1">
         <v>1611</v>
@@ -6879,7 +6879,7 @@
         <v>ssyk_1612</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C257" s="1">
         <v>1612</v>
@@ -6894,7 +6894,7 @@
         <v>ssyk_1711</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C258" s="1">
         <v>1711</v>
@@ -6909,7 +6909,7 @@
         <v>ssyk_1712</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C259" s="1">
         <v>1712</v>
@@ -6924,7 +6924,7 @@
         <v>ssyk_1721</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C260" s="1">
         <v>1721</v>
@@ -6939,7 +6939,7 @@
         <v>ssyk_1722</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C261" s="1">
         <v>1722</v>
@@ -6954,7 +6954,7 @@
         <v>ssyk_1731</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C262" s="1">
         <v>1731</v>
@@ -6969,7 +6969,7 @@
         <v>ssyk_1732</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C263" s="1">
         <v>1732</v>
@@ -6984,7 +6984,7 @@
         <v>ssyk_1741</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C264" s="1">
         <v>1741</v>
@@ -6999,7 +6999,7 @@
         <v>ssyk_1742</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C265" s="1">
         <v>1742</v>
@@ -7014,7 +7014,7 @@
         <v>ssyk_1791</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C266" s="1">
         <v>1791</v>
@@ -7029,7 +7029,7 @@
         <v>ssyk_1792</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C267" s="1">
         <v>1792</v>
@@ -7044,7 +7044,7 @@
         <v>ssyk_2111</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C268" s="1">
         <v>2111</v>
@@ -7059,7 +7059,7 @@
         <v>ssyk_2112</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C269" s="1">
         <v>2112</v>
@@ -7074,7 +7074,7 @@
         <v>ssyk_2113</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C270" s="1">
         <v>2113</v>
@@ -7089,7 +7089,7 @@
         <v>ssyk_2114</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C271" s="1">
         <v>2114</v>
@@ -7104,7 +7104,7 @@
         <v>ssyk_2121</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C272" s="1">
         <v>2121</v>
@@ -7119,7 +7119,7 @@
         <v>ssyk_2122</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C273" s="1">
         <v>2122</v>
@@ -7134,7 +7134,7 @@
         <v>ssyk_2131</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C274" s="1">
         <v>2131</v>
@@ -7149,7 +7149,7 @@
         <v>ssyk_2132</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C275" s="1">
         <v>2132</v>
@@ -7164,7 +7164,7 @@
         <v>ssyk_2133</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C276" s="1">
         <v>2133</v>
@@ -7180,7 +7180,7 @@
         <v>ssyk_2134</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C277" s="1">
         <v>2134</v>
@@ -7195,7 +7195,7 @@
         <v>ssyk_2135</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C278" s="1">
         <v>2135</v>
@@ -7210,7 +7210,7 @@
         <v>ssyk_2141</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C279" s="1">
         <v>2141</v>
@@ -7225,7 +7225,7 @@
         <v>ssyk_2142</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C280" s="1">
         <v>2142</v>
@@ -7240,7 +7240,7 @@
         <v>ssyk_2143</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C281" s="1">
         <v>2143</v>
@@ -7255,7 +7255,7 @@
         <v>ssyk_2144</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C282" s="1">
         <v>2144</v>
@@ -7270,7 +7270,7 @@
         <v>ssyk_2145</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C283" s="1">
         <v>2145</v>
@@ -7285,7 +7285,7 @@
         <v>ssyk_2146</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C284" s="1">
         <v>2146</v>
@@ -7300,7 +7300,7 @@
         <v>ssyk_2149</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C285" s="1">
         <v>2149</v>
@@ -7315,7 +7315,7 @@
         <v>ssyk_2161</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C286" s="1">
         <v>2161</v>
@@ -7330,7 +7330,7 @@
         <v>ssyk_2162</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C287" s="1">
         <v>2162</v>
@@ -7345,7 +7345,7 @@
         <v>ssyk_2163</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C288" s="1">
         <v>2163</v>
@@ -7360,7 +7360,7 @@
         <v>ssyk_2164</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C289" s="1">
         <v>2164</v>
@@ -7375,7 +7375,7 @@
         <v>ssyk_2171</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C290" s="1">
         <v>2171</v>
@@ -7390,7 +7390,7 @@
         <v>ssyk_2172</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C291" s="1">
         <v>2172</v>
@@ -7405,7 +7405,7 @@
         <v>ssyk_2173</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C292" s="1">
         <v>2173</v>
@@ -7420,7 +7420,7 @@
         <v>ssyk_2179</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C293" s="1">
         <v>2179</v>
@@ -7435,7 +7435,7 @@
         <v>ssyk_2181</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C294" s="1">
         <v>2181</v>
@@ -7450,7 +7450,7 @@
         <v>ssyk_2182</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C295" s="1">
         <v>2182</v>
@@ -7465,7 +7465,7 @@
         <v>ssyk_2183</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C296" s="1">
         <v>2183</v>
@@ -7480,7 +7480,7 @@
         <v>ssyk_2211</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C297" s="1">
         <v>2211</v>
@@ -7495,7 +7495,7 @@
         <v>ssyk_2212</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C298" s="1">
         <v>2212</v>
@@ -7510,7 +7510,7 @@
         <v>ssyk_2213</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C299" s="1">
         <v>2213</v>
@@ -7525,7 +7525,7 @@
         <v>ssyk_2219</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C300" s="1">
         <v>2219</v>
@@ -7540,7 +7540,7 @@
         <v>ssyk_2221</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C301" s="1">
         <v>2221</v>
@@ -7555,7 +7555,7 @@
         <v>ssyk_2222</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C302" s="1">
         <v>2222</v>
@@ -7570,7 +7570,7 @@
         <v>ssyk_2223</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C303" s="1">
         <v>2223</v>
@@ -7585,7 +7585,7 @@
         <v>ssyk_2224</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C304" s="1">
         <v>2224</v>
@@ -7600,7 +7600,7 @@
         <v>ssyk_2225</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C305" s="1">
         <v>2225</v>
@@ -7615,7 +7615,7 @@
         <v>ssyk_2226</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C306" s="1">
         <v>2226</v>
@@ -7630,7 +7630,7 @@
         <v>ssyk_2227</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C307" s="1">
         <v>2227</v>
@@ -7645,7 +7645,7 @@
         <v>ssyk_2228</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C308" s="1">
         <v>2228</v>
@@ -7660,7 +7660,7 @@
         <v>ssyk_2231</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C309" s="1">
         <v>2231</v>
@@ -7675,7 +7675,7 @@
         <v>ssyk_2232</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C310" s="1">
         <v>2232</v>
@@ -7690,7 +7690,7 @@
         <v>ssyk_2233</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C311" s="1">
         <v>2233</v>
@@ -7705,7 +7705,7 @@
         <v>ssyk_2234</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C312" s="1">
         <v>2234</v>
@@ -7720,7 +7720,7 @@
         <v>ssyk_2235</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C313" s="1">
         <v>2235</v>
@@ -7735,7 +7735,7 @@
         <v>ssyk_2239</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C314" s="1">
         <v>2239</v>
@@ -7750,7 +7750,7 @@
         <v>ssyk_2241</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C315" s="1">
         <v>2241</v>
@@ -7765,7 +7765,7 @@
         <v>ssyk_2242</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C316" s="1">
         <v>2242</v>
@@ -7780,7 +7780,7 @@
         <v>ssyk_2250</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C317" s="1">
         <v>2250</v>
@@ -7795,7 +7795,7 @@
         <v>ssyk_2260</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C318" s="1">
         <v>2260</v>
@@ -7810,7 +7810,7 @@
         <v>ssyk_2271</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C319" s="1">
         <v>2271</v>
@@ -7825,7 +7825,7 @@
         <v>ssyk_2272</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C320" s="1">
         <v>2272</v>
@@ -7840,7 +7840,7 @@
         <v>ssyk_2273</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C321" s="1">
         <v>2273</v>
@@ -7855,7 +7855,7 @@
         <v>ssyk_2281</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C322" s="1">
         <v>2281</v>
@@ -7870,7 +7870,7 @@
         <v>ssyk_2282</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C323" s="1">
         <v>2282</v>
@@ -7885,7 +7885,7 @@
         <v>ssyk_2283</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C324" s="1">
         <v>2283</v>
@@ -7900,7 +7900,7 @@
         <v>ssyk_2284</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C325" s="1">
         <v>2284</v>
@@ -7915,7 +7915,7 @@
         <v>ssyk_2289</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C326" s="1">
         <v>2289</v>
@@ -7930,7 +7930,7 @@
         <v>ssyk_2311</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C327" s="1">
         <v>2311</v>
@@ -7945,7 +7945,7 @@
         <v>ssyk_2312</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C328" s="1">
         <v>2312</v>
@@ -7960,7 +7960,7 @@
         <v>ssyk_2313</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C329" s="1">
         <v>2313</v>
@@ -7975,7 +7975,7 @@
         <v>ssyk_2314</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C330" s="1">
         <v>2314</v>
@@ -7990,7 +7990,7 @@
         <v>ssyk_2319</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C331" s="1">
         <v>2319</v>
@@ -8005,7 +8005,7 @@
         <v>ssyk_2320</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C332" s="1">
         <v>2320</v>
@@ -8020,7 +8020,7 @@
         <v>ssyk_2330</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C333" s="1">
         <v>2330</v>
@@ -8035,7 +8035,7 @@
         <v>ssyk_2341</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C334" s="1">
         <v>2341</v>
@@ -8050,7 +8050,7 @@
         <v>ssyk_2342</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C335" s="1">
         <v>2342</v>
@@ -8065,7 +8065,7 @@
         <v>ssyk_2343</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C336" s="1">
         <v>2343</v>
@@ -8080,7 +8080,7 @@
         <v>ssyk_2351</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C337" s="1">
         <v>2351</v>
@@ -8095,7 +8095,7 @@
         <v>ssyk_2352</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C338" s="1">
         <v>2352</v>
@@ -8110,7 +8110,7 @@
         <v>ssyk_2359</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C339" s="1">
         <v>2359</v>
@@ -8125,7 +8125,7 @@
         <v>ssyk_2411</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C340" s="1">
         <v>2411</v>
@@ -8140,7 +8140,7 @@
         <v>ssyk_2412</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C341" s="1">
         <v>2412</v>
@@ -8155,7 +8155,7 @@
         <v>ssyk_2413</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C342" s="1">
         <v>2413</v>
@@ -8170,7 +8170,7 @@
         <v>ssyk_2414</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C343" s="1">
         <v>2414</v>
@@ -8185,7 +8185,7 @@
         <v>ssyk_2415</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C344" s="1">
         <v>2415</v>
@@ -8200,7 +8200,7 @@
         <v>ssyk_2419</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C345" s="1">
         <v>2419</v>
@@ -8215,7 +8215,7 @@
         <v>ssyk_2421</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C346" s="1">
         <v>2421</v>
@@ -8230,7 +8230,7 @@
         <v>ssyk_2422</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C347" s="1">
         <v>2422</v>
@@ -8246,7 +8246,7 @@
         <v>ssyk_2423</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C348" s="1">
         <v>2423</v>
@@ -8261,7 +8261,7 @@
         <v>ssyk_2431</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C349" s="1">
         <v>2431</v>
@@ -8276,7 +8276,7 @@
         <v>ssyk_2432</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C350" s="1">
         <v>2432</v>
@@ -8291,7 +8291,7 @@
         <v>ssyk_2511</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C351" s="1">
         <v>2511</v>
@@ -8306,7 +8306,7 @@
         <v>ssyk_2512</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C352" s="1">
         <v>2512</v>
@@ -8321,7 +8321,7 @@
         <v>ssyk_2513</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C353" s="1">
         <v>2513</v>
@@ -8336,7 +8336,7 @@
         <v>ssyk_2514</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C354" s="1">
         <v>2514</v>
@@ -8351,7 +8351,7 @@
         <v>ssyk_2515</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C355" s="1">
         <v>2515</v>
@@ -8366,7 +8366,7 @@
         <v>ssyk_2516</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C356" s="1">
         <v>2516</v>
@@ -8381,7 +8381,7 @@
         <v>ssyk_2519</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C357" s="1">
         <v>2519</v>
@@ -8396,7 +8396,7 @@
         <v>ssyk_2611</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C358" s="1">
         <v>2611</v>
@@ -8411,7 +8411,7 @@
         <v>ssyk_2612</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C359" s="1">
         <v>2612</v>
@@ -8426,7 +8426,7 @@
         <v>ssyk_2613</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C360" s="1">
         <v>2613</v>
@@ -8441,7 +8441,7 @@
         <v>ssyk_2614</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C361" s="1">
         <v>2614</v>
@@ -8456,7 +8456,7 @@
         <v>ssyk_2615</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C362" s="1">
         <v>2615</v>
@@ -8471,7 +8471,7 @@
         <v>ssyk_2619</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C363" s="1">
         <v>2619</v>
@@ -8486,7 +8486,7 @@
         <v>ssyk_2621</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C364" s="1">
         <v>2621</v>
@@ -8501,7 +8501,7 @@
         <v>ssyk_2622</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C365" s="1">
         <v>2622</v>
@@ -8516,7 +8516,7 @@
         <v>ssyk_2623</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C366" s="1">
         <v>2623</v>
@@ -8532,7 +8532,7 @@
         <v>ssyk_2641</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C367" s="1">
         <v>2641</v>
@@ -8548,7 +8548,7 @@
         <v>ssyk_2642</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C368" s="1">
         <v>2642</v>
@@ -8563,7 +8563,7 @@
         <v>ssyk_2643</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C369" s="1">
         <v>2643</v>
@@ -8578,7 +8578,7 @@
         <v>ssyk_2651</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C370" s="1">
         <v>2651</v>
@@ -8593,7 +8593,7 @@
         <v>ssyk_2652</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C371" s="1">
         <v>2652</v>
@@ -8608,7 +8608,7 @@
         <v>ssyk_2653</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C372" s="1">
         <v>2653</v>
@@ -8623,7 +8623,7 @@
         <v>ssyk_2654</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C373" s="1">
         <v>2654</v>
@@ -8638,7 +8638,7 @@
         <v>ssyk_2655</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C374" s="1">
         <v>2655</v>
@@ -8653,7 +8653,7 @@
         <v>ssyk_2661</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C375" s="1">
         <v>2661</v>
@@ -8668,7 +8668,7 @@
         <v>ssyk_2662</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C376" s="1">
         <v>2662</v>
@@ -8683,7 +8683,7 @@
         <v>ssyk_2663</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C377" s="1">
         <v>2663</v>
@@ -8698,7 +8698,7 @@
         <v>ssyk_2669</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C378" s="1">
         <v>2669</v>
@@ -8713,7 +8713,7 @@
         <v>ssyk_2671</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C379" s="1">
         <v>2671</v>
@@ -8728,7 +8728,7 @@
         <v>ssyk_2672</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C380" s="1">
         <v>2672</v>
@@ -8743,7 +8743,7 @@
         <v>ssyk_3111</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C381" s="1">
         <v>3111</v>
@@ -8758,7 +8758,7 @@
         <v>ssyk_3112</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C382" s="1">
         <v>3112</v>
@@ -8773,7 +8773,7 @@
         <v>ssyk_3113</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C383" s="1">
         <v>3113</v>
@@ -8788,7 +8788,7 @@
         <v>ssyk_3114</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C384" s="1">
         <v>3114</v>
@@ -8803,7 +8803,7 @@
         <v>ssyk_3115</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C385" s="1">
         <v>3115</v>
@@ -8818,7 +8818,7 @@
         <v>ssyk_3116</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C386" s="1">
         <v>3116</v>
@@ -8833,7 +8833,7 @@
         <v>ssyk_3117</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C387" s="1">
         <v>3117</v>
@@ -8848,7 +8848,7 @@
         <v>ssyk_3119</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C388" s="1">
         <v>3119</v>
@@ -8863,7 +8863,7 @@
         <v>ssyk_3121</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C389" s="1">
         <v>3121</v>
@@ -8878,7 +8878,7 @@
         <v>ssyk_3122</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C390" s="1">
         <v>3122</v>
@@ -8893,7 +8893,7 @@
         <v>ssyk_3151</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C391" s="1">
         <v>3151</v>
@@ -8908,7 +8908,7 @@
         <v>ssyk_3152</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C392" s="1">
         <v>3152</v>
@@ -8923,7 +8923,7 @@
         <v>ssyk_3153</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C393" s="1">
         <v>3153</v>
@@ -8939,7 +8939,7 @@
         <v>ssyk_3154</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C394" s="1">
         <v>3154</v>
@@ -8954,7 +8954,7 @@
         <v>ssyk_3155</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C395" s="1">
         <v>3155</v>
@@ -8969,7 +8969,7 @@
         <v>ssyk_3211</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C396" s="1">
         <v>3211</v>
@@ -8984,7 +8984,7 @@
         <v>ssyk_3212</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C397" s="1">
         <v>3212</v>
@@ -8999,7 +8999,7 @@
         <v>ssyk_3213</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C398" s="1">
         <v>3213</v>
@@ -9014,7 +9014,7 @@
         <v>ssyk_3214</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C399" s="1">
         <v>3214</v>
@@ -9029,7 +9029,7 @@
         <v>ssyk_3215</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C400" s="1">
         <v>3215</v>
@@ -9044,7 +9044,7 @@
         <v>ssyk_3230</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C401" s="1">
         <v>3230</v>
@@ -9059,7 +9059,7 @@
         <v>ssyk_3240</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C402" s="1">
         <v>3240</v>
@@ -9074,7 +9074,7 @@
         <v>ssyk_3250</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C403" s="1">
         <v>3250</v>
@@ -9089,7 +9089,7 @@
         <v>ssyk_3311</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C404" s="1">
         <v>3311</v>
@@ -9104,7 +9104,7 @@
         <v>ssyk_3312</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C405" s="1">
         <v>3312</v>
@@ -9119,7 +9119,7 @@
         <v>ssyk_3313</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C406" s="1">
         <v>3313</v>
@@ -9134,7 +9134,7 @@
         <v>ssyk_3314</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C407" s="1">
         <v>3314</v>
@@ -9149,7 +9149,7 @@
         <v>ssyk_3321</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C408" s="1">
         <v>3321</v>
@@ -9164,7 +9164,7 @@
         <v>ssyk_3322</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C409" s="1">
         <v>3322</v>
@@ -9179,7 +9179,7 @@
         <v>ssyk_3323</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C410" s="1">
         <v>3323</v>
@@ -9194,7 +9194,7 @@
         <v>ssyk_3324</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C411" s="1">
         <v>3324</v>
@@ -9209,7 +9209,7 @@
         <v>ssyk_3331</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C412" s="1">
         <v>3331</v>
@@ -9224,7 +9224,7 @@
         <v>ssyk_3332</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C413" s="1">
         <v>3332</v>
@@ -9239,7 +9239,7 @@
         <v>ssyk_3333</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C414" s="1">
         <v>3333</v>
@@ -9254,7 +9254,7 @@
         <v>ssyk_3334</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C415" s="1">
         <v>3334</v>
@@ -9269,7 +9269,7 @@
         <v>ssyk_3335</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C416" s="1">
         <v>3335</v>
@@ -9284,7 +9284,7 @@
         <v>ssyk_3339</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C417" s="1">
         <v>3339</v>
@@ -9299,7 +9299,7 @@
         <v>ssyk_3341</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C418" s="1">
         <v>3341</v>
@@ -9314,7 +9314,7 @@
         <v>ssyk_3342</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C419" s="1">
         <v>3342</v>
@@ -9329,7 +9329,7 @@
         <v>ssyk_3343</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C420" s="1">
         <v>3343</v>
@@ -9344,7 +9344,7 @@
         <v>ssyk_3351</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C421" s="1">
         <v>3351</v>
@@ -9359,7 +9359,7 @@
         <v>ssyk_3352</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C422" s="1">
         <v>3352</v>
@@ -9374,7 +9374,7 @@
         <v>ssyk_3353</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C423" s="1">
         <v>3353</v>
@@ -9389,7 +9389,7 @@
         <v>ssyk_3354</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C424" s="1">
         <v>3354</v>
@@ -9404,7 +9404,7 @@
         <v>ssyk_3355</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C425" s="1">
         <v>3355</v>
@@ -9419,7 +9419,7 @@
         <v>ssyk_3359</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C426" s="1">
         <v>3359</v>
@@ -9434,7 +9434,7 @@
         <v>ssyk_3360</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C427" s="1">
         <v>3360</v>
@@ -9450,7 +9450,7 @@
         <v>ssyk_3411</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C428" s="1">
         <v>3411</v>
@@ -9465,7 +9465,7 @@
         <v>ssyk_3412</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C429" s="1">
         <v>3412</v>
@@ -9480,7 +9480,7 @@
         <v>ssyk_3421</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C430" s="1">
         <v>3421</v>
@@ -9495,7 +9495,7 @@
         <v>ssyk_3422</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C431" s="1">
         <v>3422</v>
@@ -9510,7 +9510,7 @@
         <v>ssyk_3423</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C432" s="1">
         <v>3423</v>
@@ -9525,7 +9525,7 @@
         <v>ssyk_3424</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C433" s="1">
         <v>3424</v>
@@ -9540,7 +9540,7 @@
         <v>ssyk_3431</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C434" s="1">
         <v>3431</v>
@@ -9555,7 +9555,7 @@
         <v>ssyk_3432</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C435" s="1">
         <v>3432</v>
@@ -9570,7 +9570,7 @@
         <v>ssyk_3433</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C436" s="1">
         <v>3433</v>
@@ -9585,7 +9585,7 @@
         <v>ssyk_3439</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C437" s="1">
         <v>3439</v>
@@ -9600,7 +9600,7 @@
         <v>ssyk_3441</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C438" s="1">
         <v>3441</v>
@@ -9615,7 +9615,7 @@
         <v>ssyk_3449</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C439" s="1">
         <v>3449</v>
@@ -9631,7 +9631,7 @@
         <v>ssyk_3451</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C440" s="1">
         <v>3451</v>
@@ -9646,7 +9646,7 @@
         <v>ssyk_3452</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C441" s="1">
         <v>3452</v>
@@ -9661,7 +9661,7 @@
         <v>ssyk_3511</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C442" s="1">
         <v>3511</v>
@@ -9676,7 +9676,7 @@
         <v>ssyk_3512</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C443" s="1">
         <v>3512</v>
@@ -9691,7 +9691,7 @@
         <v>ssyk_3513</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C444" s="1">
         <v>3513</v>
@@ -9706,7 +9706,7 @@
         <v>ssyk_3514</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C445" s="1">
         <v>3514</v>
@@ -9721,7 +9721,7 @@
         <v>ssyk_3515</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C446" s="1">
         <v>3515</v>
@@ -9736,7 +9736,7 @@
         <v>ssyk_3521</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C447" s="1">
         <v>3521</v>
@@ -9751,7 +9751,7 @@
         <v>ssyk_3522</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C448" s="1">
         <v>3522</v>
@@ -9766,7 +9766,7 @@
         <v>ssyk_4111</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C449" s="1">
         <v>4111</v>
@@ -9781,7 +9781,7 @@
         <v>ssyk_4112</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C450" s="1">
         <v>4112</v>
@@ -9797,7 +9797,7 @@
         <v>ssyk_4113</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C451" s="1">
         <v>4113</v>
@@ -9812,7 +9812,7 @@
         <v>ssyk_4114</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C452" s="1">
         <v>4114</v>
@@ -9828,7 +9828,7 @@
         <v>ssyk_4115</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C453" s="1">
         <v>4115</v>
@@ -9843,7 +9843,7 @@
         <v>ssyk_4116</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C454" s="1">
         <v>4116</v>
@@ -9858,7 +9858,7 @@
         <v>ssyk_4117</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C455" s="1">
         <v>4117</v>
@@ -9874,7 +9874,7 @@
         <v>ssyk_4119</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C456" s="1">
         <v>4119</v>
@@ -9890,7 +9890,7 @@
         <v>ssyk_4211</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C457" s="1">
         <v>4211</v>
@@ -9906,7 +9906,7 @@
         <v>ssyk_4212</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C458" s="1">
         <v>4212</v>
@@ -9922,7 +9922,7 @@
         <v>ssyk_4221</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C459" s="1">
         <v>4221</v>
@@ -9938,7 +9938,7 @@
         <v>ssyk_4222</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C460" s="1">
         <v>4222</v>
@@ -9953,7 +9953,7 @@
         <v>ssyk_4223</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C461" s="1">
         <v>4223</v>
@@ -9968,7 +9968,7 @@
         <v>ssyk_4224</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C462" s="1">
         <v>4224</v>
@@ -9983,7 +9983,7 @@
         <v>ssyk_4225</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C463" s="1">
         <v>4225</v>
@@ -9998,7 +9998,7 @@
         <v>ssyk_4226</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C464" s="1">
         <v>4226</v>
@@ -10013,7 +10013,7 @@
         <v>ssyk_4321</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C465" s="1">
         <v>4321</v>
@@ -10028,7 +10028,7 @@
         <v>ssyk_4322</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C466" s="1">
         <v>4322</v>
@@ -10043,7 +10043,7 @@
         <v>ssyk_4323</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C467" s="1">
         <v>4323</v>
@@ -10058,7 +10058,7 @@
         <v>ssyk_4410</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C468" s="1">
         <v>4410</v>
@@ -10073,7 +10073,7 @@
         <v>ssyk_4420</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C469" s="1">
         <v>4420</v>
@@ -10088,7 +10088,7 @@
         <v>ssyk_4430</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C470" s="1">
         <v>4430</v>
@@ -10103,7 +10103,7 @@
         <v>ssyk_5111</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C471" s="1">
         <v>5111</v>
@@ -10118,7 +10118,7 @@
         <v>ssyk_5112</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C472" s="1">
         <v>5112</v>
@@ -10133,7 +10133,7 @@
         <v>ssyk_5113</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C473" s="1">
         <v>5113</v>
@@ -10148,7 +10148,7 @@
         <v>ssyk_5120</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C474" s="1">
         <v>5120</v>
@@ -10163,7 +10163,7 @@
         <v>ssyk_5131</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C475" s="1">
         <v>5131</v>
@@ -10178,7 +10178,7 @@
         <v>ssyk_5132</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C476" s="1">
         <v>5132</v>
@@ -10193,7 +10193,7 @@
         <v>ssyk_5141</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C477" s="1">
         <v>5141</v>
@@ -10208,7 +10208,7 @@
         <v>ssyk_5142</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C478" s="1">
         <v>5142</v>
@@ -10224,7 +10224,7 @@
         <v>ssyk_5143</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C479" s="1">
         <v>5143</v>
@@ -10239,7 +10239,7 @@
         <v>ssyk_5144</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C480" s="1">
         <v>5144</v>
@@ -10254,7 +10254,7 @@
         <v>ssyk_5149</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C481" s="1">
         <v>5149</v>
@@ -10269,7 +10269,7 @@
         <v>ssyk_5151</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C482" s="1">
         <v>5151</v>
@@ -10284,7 +10284,7 @@
         <v>ssyk_5152</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C483" s="1">
         <v>5152</v>
@@ -10299,7 +10299,7 @@
         <v>ssyk_5161</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C484" s="1">
         <v>5161</v>
@@ -10314,7 +10314,7 @@
         <v>ssyk_5169</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C485" s="1">
         <v>5169</v>
@@ -10329,7 +10329,7 @@
         <v>ssyk_5221</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C486" s="1">
         <v>5221</v>
@@ -10344,7 +10344,7 @@
         <v>ssyk_5222</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C487" s="1">
         <v>5222</v>
@@ -10359,7 +10359,7 @@
         <v>ssyk_5223</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C488" s="1">
         <v>5223</v>
@@ -10374,7 +10374,7 @@
         <v>ssyk_5224</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C489" s="1">
         <v>5224</v>
@@ -10389,7 +10389,7 @@
         <v>ssyk_5225</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C490" s="1">
         <v>5225</v>
@@ -10404,7 +10404,7 @@
         <v>ssyk_5226</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C491" s="1">
         <v>5226</v>
@@ -10420,7 +10420,7 @@
         <v>ssyk_5227</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C492" s="1">
         <v>5227</v>
@@ -10435,7 +10435,7 @@
         <v>ssyk_5230</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C493" s="1">
         <v>5230</v>
@@ -10450,7 +10450,7 @@
         <v>ssyk_5241</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C494" s="1">
         <v>5241</v>
@@ -10465,7 +10465,7 @@
         <v>ssyk_5242</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C495" s="1">
         <v>5242</v>
@@ -10480,7 +10480,7 @@
         <v>ssyk_5311</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C496" s="1">
         <v>5311</v>
@@ -10495,7 +10495,7 @@
         <v>ssyk_5312</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C497" s="1">
         <v>5312</v>
@@ -10510,7 +10510,7 @@
         <v>ssyk_5321</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C498" s="1">
         <v>5321</v>
@@ -10525,7 +10525,7 @@
         <v>ssyk_5322</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C499" s="1">
         <v>5322</v>
@@ -10540,7 +10540,7 @@
         <v>ssyk_5323</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C500" s="1">
         <v>5323</v>
@@ -10555,7 +10555,7 @@
         <v>ssyk_5324</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C501" s="1">
         <v>5324</v>
@@ -10570,7 +10570,7 @@
         <v>ssyk_5325</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C502" s="1">
         <v>5325</v>
@@ -10585,7 +10585,7 @@
         <v>ssyk_5326</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C503" s="1">
         <v>5326</v>
@@ -10600,7 +10600,7 @@
         <v>ssyk_5330</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C504" s="1">
         <v>5330</v>
@@ -10615,7 +10615,7 @@
         <v>ssyk_5341</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C505" s="1">
         <v>5341</v>
@@ -10630,7 +10630,7 @@
         <v>ssyk_5342</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C506" s="1">
         <v>5342</v>
@@ -10646,7 +10646,7 @@
         <v>ssyk_5343</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C507" s="1">
         <v>5343</v>
@@ -10662,7 +10662,7 @@
         <v>ssyk_5349</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C508" s="1">
         <v>5349</v>
@@ -10677,7 +10677,7 @@
         <v>ssyk_5350</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C509" s="1">
         <v>5350</v>
@@ -10692,7 +10692,7 @@
         <v>ssyk_5411</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C510" s="1">
         <v>5411</v>
@@ -10707,7 +10707,7 @@
         <v>ssyk_5412</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C511" s="1">
         <v>5412</v>
@@ -10722,7 +10722,7 @@
         <v>ssyk_5413</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C512" s="1">
         <v>5413</v>
@@ -10737,7 +10737,7 @@
         <v>ssyk_5414</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C513" s="1">
         <v>5414</v>
@@ -10752,7 +10752,7 @@
         <v>ssyk_5419</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C514" s="1">
         <v>5419</v>
@@ -10767,7 +10767,7 @@
         <v>ssyk_6111</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C515" s="1">
         <v>6111</v>
@@ -10782,7 +10782,7 @@
         <v>ssyk_6112</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C516" s="1">
         <v>6112</v>
@@ -10797,7 +10797,7 @@
         <v>ssyk_6113</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C517" s="1">
         <v>6113</v>
@@ -10812,7 +10812,7 @@
         <v>ssyk_6121</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C518" s="1">
         <v>6121</v>
@@ -10827,7 +10827,7 @@
         <v>ssyk_6122</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C519" s="1">
         <v>6122</v>
@@ -10842,7 +10842,7 @@
         <v>ssyk_6129</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C520" s="1">
         <v>6129</v>
@@ -10857,7 +10857,7 @@
         <v>ssyk_6130</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C521" s="1">
         <v>6130</v>
@@ -10872,7 +10872,7 @@
         <v>ssyk_6210</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C522" s="1">
         <v>6210</v>
@@ -10888,7 +10888,7 @@
         <v>ssyk_6221</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C523" s="1">
         <v>6221</v>
@@ -10903,7 +10903,7 @@
         <v>ssyk_6222</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C524" s="1">
         <v>6222</v>
@@ -10918,7 +10918,7 @@
         <v>ssyk_7111</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C525" s="1">
         <v>7111</v>
@@ -10933,7 +10933,7 @@
         <v>ssyk_7112</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C526" s="1">
         <v>7112</v>
@@ -10948,7 +10948,7 @@
         <v>ssyk_7113</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C527" s="1">
         <v>7113</v>
@@ -10963,7 +10963,7 @@
         <v>ssyk_7114</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C528" s="1">
         <v>7114</v>
@@ -10978,7 +10978,7 @@
         <v>ssyk_7115</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C529" s="1">
         <v>7115</v>
@@ -10993,7 +10993,7 @@
         <v>ssyk_7116</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C530" s="1">
         <v>7116</v>
@@ -11008,7 +11008,7 @@
         <v>ssyk_7119</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C531" s="1">
         <v>7119</v>
@@ -11023,7 +11023,7 @@
         <v>ssyk_7121</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C532" s="1">
         <v>7121</v>
@@ -11038,7 +11038,7 @@
         <v>ssyk_7122</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C533" s="1">
         <v>7122</v>
@@ -11053,7 +11053,7 @@
         <v>ssyk_7123</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C534" s="1">
         <v>7123</v>
@@ -11068,7 +11068,7 @@
         <v>ssyk_7124</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C535" s="1">
         <v>7124</v>
@@ -11083,7 +11083,7 @@
         <v>ssyk_7125</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C536" s="1">
         <v>7125</v>
@@ -11098,7 +11098,7 @@
         <v>ssyk_7126</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C537" s="1">
         <v>7126</v>
@@ -11113,7 +11113,7 @@
         <v>ssyk_7131</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C538" s="1">
         <v>7131</v>
@@ -11128,7 +11128,7 @@
         <v>ssyk_7132</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C539" s="1">
         <v>7132</v>
@@ -11143,7 +11143,7 @@
         <v>ssyk_7133</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C540" s="1">
         <v>7133</v>
@@ -11158,7 +11158,7 @@
         <v>ssyk_7134</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C541" s="1">
         <v>7134</v>
@@ -11173,7 +11173,7 @@
         <v>ssyk_7211</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C542" s="1">
         <v>7211</v>
@@ -11188,7 +11188,7 @@
         <v>ssyk_7212</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C543" s="1">
         <v>7212</v>
@@ -11203,7 +11203,7 @@
         <v>ssyk_7213</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C544" s="1">
         <v>7213</v>
@@ -11218,7 +11218,7 @@
         <v>ssyk_7214</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C545" s="1">
         <v>7214</v>
@@ -11233,7 +11233,7 @@
         <v>ssyk_7215</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C546" s="1">
         <v>7215</v>
@@ -11248,7 +11248,7 @@
         <v>ssyk_7221</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C547" s="1">
         <v>7221</v>
@@ -11263,7 +11263,7 @@
         <v>ssyk_7222</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C548" s="1">
         <v>7222</v>
@@ -11278,7 +11278,7 @@
         <v>ssyk_7223</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C549" s="1">
         <v>7223</v>
@@ -11293,7 +11293,7 @@
         <v>ssyk_7224</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C550" s="1">
         <v>7224</v>
@@ -11308,7 +11308,7 @@
         <v>ssyk_7231</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C551" s="1">
         <v>7231</v>
@@ -11323,7 +11323,7 @@
         <v>ssyk_7232</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C552" s="1">
         <v>7232</v>
@@ -11338,7 +11338,7 @@
         <v>ssyk_7233</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C553" s="1">
         <v>7233</v>
@@ -11353,7 +11353,7 @@
         <v>ssyk_7311</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C554" s="1">
         <v>7311</v>
@@ -11368,7 +11368,7 @@
         <v>ssyk_7312</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C555" s="1">
         <v>7312</v>
@@ -11383,7 +11383,7 @@
         <v>ssyk_7319</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C556" s="1">
         <v>7319</v>
@@ -11398,7 +11398,7 @@
         <v>ssyk_7321</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C557" s="1">
         <v>7321</v>
@@ -11413,7 +11413,7 @@
         <v>ssyk_7322</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C558" s="1">
         <v>7322</v>
@@ -11428,7 +11428,7 @@
         <v>ssyk_7323</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C559" s="1">
         <v>7323</v>
@@ -11443,7 +11443,7 @@
         <v>ssyk_7411</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C560" s="1">
         <v>7411</v>
@@ -11458,7 +11458,7 @@
         <v>ssyk_7412</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C561" s="1">
         <v>7412</v>
@@ -11473,7 +11473,7 @@
         <v>ssyk_7413</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C562" s="1">
         <v>7413</v>
@@ -11488,7 +11488,7 @@
         <v>ssyk_7420</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C563" s="1">
         <v>7420</v>
@@ -11503,7 +11503,7 @@
         <v>ssyk_7521</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C564" s="1">
         <v>7521</v>
@@ -11518,7 +11518,7 @@
         <v>ssyk_7522</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C565" s="1">
         <v>7522</v>
@@ -11533,7 +11533,7 @@
         <v>ssyk_7523</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C566" s="1">
         <v>7523</v>
@@ -11548,7 +11548,7 @@
         <v>ssyk_7531</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C567" s="1">
         <v>7531</v>
@@ -11563,7 +11563,7 @@
         <v>ssyk_7532</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C568" s="1">
         <v>7532</v>
@@ -11578,7 +11578,7 @@
         <v>ssyk_7533</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C569" s="1">
         <v>7533</v>
@@ -11593,7 +11593,7 @@
         <v>ssyk_7534</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C570" s="1">
         <v>7534</v>
@@ -11608,7 +11608,7 @@
         <v>ssyk_7611</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C571" s="1">
         <v>7611</v>
@@ -11623,7 +11623,7 @@
         <v>ssyk_7612</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C572" s="1">
         <v>7612</v>
@@ -11638,7 +11638,7 @@
         <v>ssyk_7613</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C573" s="1">
         <v>7613</v>
@@ -11653,7 +11653,7 @@
         <v>ssyk_7619</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C574" s="1">
         <v>7619</v>
@@ -11668,7 +11668,7 @@
         <v>ssyk_8111</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C575" s="1">
         <v>8111</v>
@@ -11683,7 +11683,7 @@
         <v>ssyk_8112</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C576" s="1">
         <v>8112</v>
@@ -11698,7 +11698,7 @@
         <v>ssyk_8113</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C577" s="1">
         <v>8113</v>
@@ -11713,7 +11713,7 @@
         <v>ssyk_8114</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C578" s="1">
         <v>8114</v>
@@ -11728,7 +11728,7 @@
         <v>ssyk_8115</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C579" s="1">
         <v>8115</v>
@@ -11743,7 +11743,7 @@
         <v>ssyk_8116</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C580" s="1">
         <v>8116</v>
@@ -11758,7 +11758,7 @@
         <v>ssyk_8121</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C581" s="1">
         <v>8121</v>
@@ -11773,7 +11773,7 @@
         <v>ssyk_8122</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C582" s="1">
         <v>8122</v>
@@ -11788,7 +11788,7 @@
         <v>ssyk_8129</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C583" s="1">
         <v>8129</v>
@@ -11803,7 +11803,7 @@
         <v>ssyk_8131</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C584" s="1">
         <v>8131</v>
@@ -11818,7 +11818,7 @@
         <v>ssyk_8132</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C585" s="1">
         <v>8132</v>
@@ -11833,7 +11833,7 @@
         <v>ssyk_8141</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C586" s="1">
         <v>8141</v>
@@ -11848,7 +11848,7 @@
         <v>ssyk_8142</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C587" s="1">
         <v>8142</v>
@@ -11863,7 +11863,7 @@
         <v>ssyk_8143</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C588" s="1">
         <v>8143</v>
@@ -11878,7 +11878,7 @@
         <v>ssyk_8151</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C589" s="1">
         <v>8151</v>
@@ -11893,7 +11893,7 @@
         <v>ssyk_8159</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C590" s="1">
         <v>8159</v>
@@ -11908,7 +11908,7 @@
         <v>ssyk_8161</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C591" s="1">
         <v>8161</v>
@@ -11923,7 +11923,7 @@
         <v>ssyk_8162</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C592" s="1">
         <v>8162</v>
@@ -11938,7 +11938,7 @@
         <v>ssyk_8163</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C593" s="1">
         <v>8163</v>
@@ -11953,7 +11953,7 @@
         <v>ssyk_8169</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C594" s="1">
         <v>8169</v>
@@ -11968,7 +11968,7 @@
         <v>ssyk_8171</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C595" s="1">
         <v>8171</v>
@@ -11983,7 +11983,7 @@
         <v>ssyk_8172</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C596" s="1">
         <v>8172</v>
@@ -11998,7 +11998,7 @@
         <v>ssyk_8173</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C597" s="1">
         <v>8173</v>
@@ -12013,7 +12013,7 @@
         <v>ssyk_8174</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C598" s="1">
         <v>8174</v>
@@ -12028,7 +12028,7 @@
         <v>ssyk_8181</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C599" s="1">
         <v>8181</v>
@@ -12043,7 +12043,7 @@
         <v>ssyk_8189</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C600" s="1">
         <v>8189</v>
@@ -12058,7 +12058,7 @@
         <v>ssyk_8191</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C601" s="1">
         <v>8191</v>
@@ -12073,7 +12073,7 @@
         <v>ssyk_8192</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C602" s="1">
         <v>8192</v>
@@ -12088,7 +12088,7 @@
         <v>ssyk_8193</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C603" s="1">
         <v>8193</v>
@@ -12103,7 +12103,7 @@
         <v>ssyk_8199</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C604" s="1">
         <v>8199</v>
@@ -12118,7 +12118,7 @@
         <v>ssyk_8211</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C605" s="1">
         <v>8211</v>
@@ -12133,7 +12133,7 @@
         <v>ssyk_8212</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C606" s="1">
         <v>8212</v>
@@ -12148,7 +12148,7 @@
         <v>ssyk_8213</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C607" s="1">
         <v>8213</v>
@@ -12163,7 +12163,7 @@
         <v>ssyk_8214</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C608" s="1">
         <v>8214</v>
@@ -12178,7 +12178,7 @@
         <v>ssyk_8219</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C609" s="1">
         <v>8219</v>
@@ -12193,7 +12193,7 @@
         <v>ssyk_8311</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C610" s="1">
         <v>8311</v>
@@ -12208,7 +12208,7 @@
         <v>ssyk_8312</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C611" s="1">
         <v>8312</v>
@@ -12223,7 +12223,7 @@
         <v>ssyk_8321</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C612" s="1">
         <v>8321</v>
@@ -12238,7 +12238,7 @@
         <v>ssyk_8329</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C613" s="1">
         <v>8329</v>
@@ -12253,7 +12253,7 @@
         <v>ssyk_8331</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C614" s="1">
         <v>8331</v>
@@ -12268,7 +12268,7 @@
         <v>ssyk_8332</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C615" s="1">
         <v>8332</v>
@@ -12283,7 +12283,7 @@
         <v>ssyk_8341</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C616" s="1">
         <v>8341</v>
@@ -12298,7 +12298,7 @@
         <v>ssyk_8342</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C617" s="1">
         <v>8342</v>
@@ -12313,7 +12313,7 @@
         <v>ssyk_8343</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C618" s="1">
         <v>8343</v>
@@ -12328,7 +12328,7 @@
         <v>ssyk_8344</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C619" s="1">
         <v>8344</v>
@@ -12343,7 +12343,7 @@
         <v>ssyk_8350</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C620" s="1">
         <v>8350</v>
@@ -12358,7 +12358,7 @@
         <v>ssyk_9111</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C621" s="1">
         <v>9111</v>
@@ -12373,7 +12373,7 @@
         <v>ssyk_9119</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C622" s="1">
         <v>9119</v>
@@ -12388,7 +12388,7 @@
         <v>ssyk_9120</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C623" s="1">
         <v>9120</v>
@@ -12403,7 +12403,7 @@
         <v>ssyk_9210</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C624" s="1">
         <v>9210</v>
@@ -12418,7 +12418,7 @@
         <v>ssyk_9310</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C625" s="1">
         <v>9310</v>
@@ -12433,7 +12433,7 @@
         <v>ssyk_9320</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C626" s="1">
         <v>9320</v>
@@ -12448,7 +12448,7 @@
         <v>ssyk_9331</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C627" s="1">
         <v>9331</v>
@@ -12463,7 +12463,7 @@
         <v>ssyk_9332</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C628" s="1">
         <v>9332</v>
@@ -12478,7 +12478,7 @@
         <v>ssyk_9411</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C629" s="1">
         <v>9411</v>
@@ -12493,7 +12493,7 @@
         <v>ssyk_9412</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C630" s="1">
         <v>9412</v>
@@ -12508,7 +12508,7 @@
         <v>ssyk_9413</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C631" s="1">
         <v>9413</v>
@@ -12523,7 +12523,7 @@
         <v>ssyk_9520</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C632" s="1">
         <v>9520</v>
@@ -12538,7 +12538,7 @@
         <v>ssyk_9610</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C633" s="1">
         <v>9610</v>
@@ -12553,7 +12553,7 @@
         <v>ssyk_9621</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C634" s="1">
         <v>9621</v>
@@ -12568,7 +12568,7 @@
         <v>ssyk_9622</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C635" s="1">
         <v>9622</v>
@@ -12583,7 +12583,7 @@
         <v>ssyk_9629</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C636" s="1">
         <v>9629</v>
@@ -12598,7 +12598,7 @@
         <v>ssyk_0</v>
       </c>
       <c r="C637" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D637" s="10" t="s">
         <v>9</v>
@@ -12610,10 +12610,10 @@
         <v>ssyk_01</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C638" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D638" s="10" t="s">
         <v>559</v>
@@ -12625,10 +12625,10 @@
         <v>ssyk_011</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C639" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D639" s="10" t="s">
         <v>559</v>
@@ -12640,10 +12640,10 @@
         <v>ssyk_0110</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C640" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D640" s="10" t="s">
         <v>559</v>
@@ -12655,10 +12655,10 @@
         <v>ssyk_02</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C641" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D641" s="10" t="s">
         <v>560</v>
@@ -12670,10 +12670,10 @@
         <v>ssyk_021</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C642" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D642" s="10" t="s">
         <v>560</v>
@@ -12681,14 +12681,14 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="str">
-        <f t="shared" ref="A643:A644" si="10">"ssyk_"&amp;C643</f>
+        <f t="shared" ref="A643" si="10">"ssyk_"&amp;C643</f>
         <v>ssyk_03</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C643" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D643" s="10" t="s">
         <v>561</v>
@@ -12696,14 +12696,14 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>"ssyk_"&amp;C644</f>
         <v>ssyk_031</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C644" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D644" s="10" t="s">
         <v>561</v>
@@ -12803,10 +12803,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>835</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/res_ssyk/data/ssyk-2012-koder2.xlsx
+++ b/res_ssyk/data/ssyk-2012-koder2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\staff\Dropbox\projekt\Vertel_projekt\github-vertelab\odoo-base\res_ssyk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D3149-3DA0-439F-8E8A-848C3718C6C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC9A7A-C220-48D2-A8BE-2590F22E1CD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20865" yWindow="3480" windowWidth="16065" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ssyk.csv" sheetId="4" r:id="rId1"/>
@@ -1907,9 +1907,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -2546,7 +2543,10 @@
     <t>Rubrik</t>
   </si>
   <si>
-    <t>parent_id / External id</t>
+    <t>parent_id/id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2558,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2609,6 +2609,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2636,14 +2641,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -2684,10 +2690,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C7411818-F90F-4061-AB39-E06B6F82B6C0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3023,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H658"/>
+  <dimension ref="A1:D658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3043,7 @@
     <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="4" max="4" width="153.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3042,14 +3051,14 @@
       <c r="A1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>836</v>
+      <c r="B1" s="24" t="s">
+        <v>835</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>623</v>
+      <c r="D1" s="25" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3166,7 +3175,7 @@
         <v>ssyk_11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C11" s="1">
         <v>11</v>
@@ -3181,7 +3190,7 @@
         <v>ssyk_12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C12" s="1">
         <v>12</v>
@@ -3196,7 +3205,7 @@
         <v>ssyk_13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C13" s="1">
         <v>13</v>
@@ -3211,7 +3220,7 @@
         <v>ssyk_14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C14" s="1">
         <v>14</v>
@@ -3226,7 +3235,7 @@
         <v>ssyk_15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -3241,7 +3250,7 @@
         <v>ssyk_16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -3250,13 +3259,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C17" s="1">
         <v>17</v>
@@ -3265,13 +3274,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C18" s="1">
         <v>21</v>
@@ -3280,13 +3289,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C19" s="1">
         <v>22</v>
@@ -3295,13 +3304,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C20" s="1">
         <v>23</v>
@@ -3310,13 +3319,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C21" s="1">
         <v>24</v>
@@ -3324,15 +3333,14 @@
       <c r="D21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C22" s="1">
         <v>25</v>
@@ -3341,13 +3349,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C23" s="1">
         <v>26</v>
@@ -3356,13 +3364,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C24" s="1">
         <v>31</v>
@@ -3371,13 +3379,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C25" s="1">
         <v>32</v>
@@ -3386,13 +3394,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C26" s="1">
         <v>33</v>
@@ -3401,13 +3409,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C27" s="1">
         <v>34</v>
@@ -3416,13 +3424,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C28" s="1">
         <v>35</v>
@@ -3431,13 +3439,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C29" s="1">
         <v>41</v>
@@ -3446,13 +3454,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C30" s="1">
         <v>42</v>
@@ -3461,13 +3469,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C31" s="1">
         <v>43</v>
@@ -3476,13 +3484,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C32" s="1">
         <v>44</v>
@@ -3491,13 +3499,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C33" s="1">
         <v>51</v>
@@ -3506,13 +3514,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C34" s="1">
         <v>52</v>
@@ -3521,13 +3529,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C35" s="1">
         <v>53</v>
@@ -3536,13 +3544,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C36" s="1">
         <v>54</v>
@@ -3551,13 +3559,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C37" s="1">
         <v>61</v>
@@ -3566,13 +3574,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C38" s="1">
         <v>62</v>
@@ -3581,13 +3589,13 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C39" s="1">
         <v>71</v>
@@ -3596,13 +3604,13 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C40" s="1">
         <v>72</v>
@@ -3610,15 +3618,14 @@
       <c r="D40" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C41" s="1">
         <v>73</v>
@@ -3627,13 +3634,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C42" s="1">
         <v>74</v>
@@ -3642,13 +3649,13 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C43" s="1">
         <v>75</v>
@@ -3657,13 +3664,13 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C44" s="1">
         <v>76</v>
@@ -3672,13 +3679,13 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C45" s="1">
         <v>81</v>
@@ -3687,13 +3694,13 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C46" s="1">
         <v>82</v>
@@ -3702,13 +3709,13 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C47" s="1">
         <v>83</v>
@@ -3717,13 +3724,13 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C48" s="1">
         <v>91</v>
@@ -3732,13 +3739,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C49" s="1">
         <v>92</v>
@@ -3747,13 +3754,13 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C50" s="1">
         <v>93</v>
@@ -3762,13 +3769,13 @@
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C51" s="1">
         <v>94</v>
@@ -3777,13 +3784,13 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C52" s="1">
         <v>95</v>
@@ -3792,13 +3799,13 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C53" s="1">
         <v>96</v>
@@ -3807,13 +3814,13 @@
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_111</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C54" s="1">
         <v>111</v>
@@ -3822,13 +3829,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C55" s="1">
         <v>112</v>
@@ -3837,13 +3844,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C56" s="1">
         <v>121</v>
@@ -3852,13 +3859,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C57" s="1">
         <v>122</v>
@@ -3867,13 +3874,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_123</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C58" s="1">
         <v>123</v>
@@ -3882,13 +3889,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C59" s="1">
         <v>124</v>
@@ -3897,13 +3904,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C60" s="1">
         <v>125</v>
@@ -3912,13 +3919,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_129</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C61" s="1">
         <v>129</v>
@@ -3927,13 +3934,13 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_131</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C62" s="1">
         <v>131</v>
@@ -3942,13 +3949,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_132</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C63" s="1">
         <v>132</v>
@@ -3957,13 +3964,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_133</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C64" s="1">
         <v>133</v>
@@ -3971,15 +3978,14 @@
       <c r="D64" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C65" s="1">
         <v>134</v>
@@ -3988,13 +3994,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ssyk_135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C66" s="1">
         <v>135</v>
@@ -4003,13 +4009,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" ref="A67:A130" si="1">"ssyk_"&amp;C67</f>
         <v>ssyk_136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C67" s="1">
         <v>136</v>
@@ -4017,15 +4023,14 @@
       <c r="D67" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_137</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C68" s="1">
         <v>137</v>
@@ -4034,13 +4039,13 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C69" s="1">
         <v>138</v>
@@ -4049,13 +4054,13 @@
         <v>430</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C70" s="1">
         <v>141</v>
@@ -4064,13 +4069,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C71" s="1">
         <v>142</v>
@@ -4079,13 +4084,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_149</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C72" s="1">
         <v>149</v>
@@ -4094,13 +4099,13 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_151</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C73" s="1">
         <v>151</v>
@@ -4108,15 +4113,14 @@
       <c r="D73" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C74" s="1">
         <v>152</v>
@@ -4125,13 +4129,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C75" s="1">
         <v>153</v>
@@ -4140,13 +4144,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C76" s="1">
         <v>154</v>
@@ -4155,13 +4159,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_159</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C77" s="1">
         <v>159</v>
@@ -4170,13 +4174,13 @@
         <v>496</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C78" s="1">
         <v>161</v>
@@ -4185,13 +4189,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C79" s="1">
         <v>171</v>
@@ -4200,13 +4204,13 @@
         <v>345</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C80" s="1">
         <v>172</v>
@@ -4215,13 +4219,13 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C81" s="1">
         <v>173</v>
@@ -4230,13 +4234,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_174</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C82" s="1">
         <v>174</v>
@@ -4245,13 +4249,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C83" s="1">
         <v>179</v>
@@ -4260,13 +4264,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C84" s="8">
         <v>210</v>
@@ -4275,13 +4279,13 @@
         <v>560</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C85" s="1">
         <v>211</v>
@@ -4290,13 +4294,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C86" s="1">
         <v>212</v>
@@ -4305,13 +4309,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C87" s="1">
         <v>213</v>
@@ -4320,13 +4324,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_214</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C88" s="1">
         <v>214</v>
@@ -4335,13 +4339,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_215</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C89" s="1">
         <v>215</v>
@@ -4350,13 +4354,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C90" s="1">
         <v>216</v>
@@ -4365,13 +4369,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_217</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C91" s="1">
         <v>217</v>
@@ -4380,13 +4384,13 @@
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_218</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C92" s="1">
         <v>218</v>
@@ -4394,15 +4398,14 @@
       <c r="D92" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_221</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C93" s="1">
         <v>221</v>
@@ -4411,13 +4414,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_222</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C94" s="1">
         <v>222</v>
@@ -4426,13 +4429,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_223</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C95" s="1">
         <v>223</v>
@@ -4441,13 +4444,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_224</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C96" s="1">
         <v>224</v>
@@ -4462,7 +4465,7 @@
         <v>ssyk_225</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C97" s="1">
         <v>225</v>
@@ -4477,7 +4480,7 @@
         <v>ssyk_226</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C98" s="1">
         <v>226</v>
@@ -4492,7 +4495,7 @@
         <v>ssyk_227</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C99" s="1">
         <v>227</v>
@@ -4507,7 +4510,7 @@
         <v>ssyk_228</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C100" s="1">
         <v>228</v>
@@ -4522,7 +4525,7 @@
         <v>ssyk_231</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C101" s="1">
         <v>231</v>
@@ -4537,7 +4540,7 @@
         <v>ssyk_232</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C102" s="1">
         <v>232</v>
@@ -4552,7 +4555,7 @@
         <v>ssyk_233</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C103" s="1">
         <v>233</v>
@@ -4567,7 +4570,7 @@
         <v>ssyk_234</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C104" s="1">
         <v>234</v>
@@ -4582,7 +4585,7 @@
         <v>ssyk_235</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C105" s="1">
         <v>235</v>
@@ -4597,7 +4600,7 @@
         <v>ssyk_241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C106" s="1">
         <v>241</v>
@@ -4612,7 +4615,7 @@
         <v>ssyk_242</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C107" s="1">
         <v>242</v>
@@ -4627,7 +4630,7 @@
         <v>ssyk_243</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C108" s="1">
         <v>243</v>
@@ -4642,7 +4645,7 @@
         <v>ssyk_251</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C109" s="1">
         <v>251</v>
@@ -4657,7 +4660,7 @@
         <v>ssyk_252</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C110" s="1">
         <v>252</v>
@@ -4672,7 +4675,7 @@
         <v>ssyk_261</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C111" s="1">
         <v>261</v>
@@ -4687,7 +4690,7 @@
         <v>ssyk_262</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C112" s="1">
         <v>262</v>
@@ -4696,13 +4699,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_263</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C113" s="1">
         <v>263</v>
@@ -4711,13 +4714,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_264</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C114" s="1">
         <v>264</v>
@@ -4726,13 +4729,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_265</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C115" s="1">
         <v>265</v>
@@ -4741,13 +4744,13 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_266</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C116" s="1">
         <v>266</v>
@@ -4756,13 +4759,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_267</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C117" s="1">
         <v>267</v>
@@ -4771,13 +4774,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_310</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C118" s="8">
         <v>310</v>
@@ -4786,13 +4789,13 @@
         <v>561</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_311</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C119" s="1">
         <v>311</v>
@@ -4801,13 +4804,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_312</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C120" s="1">
         <v>312</v>
@@ -4816,13 +4819,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_313</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C121" s="1">
         <v>313</v>
@@ -4831,13 +4834,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_314</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C122" s="1">
         <v>314</v>
@@ -4845,15 +4848,14 @@
       <c r="D122" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_315</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C123" s="1">
         <v>315</v>
@@ -4861,15 +4863,14 @@
       <c r="D123" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_321</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C124" s="1">
         <v>321</v>
@@ -4877,15 +4878,14 @@
       <c r="D124" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_322</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C125" s="1">
         <v>322</v>
@@ -4893,15 +4893,14 @@
       <c r="D125" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_323</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C126" s="1">
         <v>323</v>
@@ -4909,15 +4908,14 @@
       <c r="D126" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_324</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C127" s="1">
         <v>324</v>
@@ -4926,13 +4924,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_325</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C128" s="1">
         <v>325</v>
@@ -4941,13 +4939,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_331</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C129" s="1">
         <v>331</v>
@@ -4956,13 +4954,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ssyk_332</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C130" s="1">
         <v>332</v>
@@ -4971,13 +4969,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
         <f t="shared" ref="A131:A194" si="2">"ssyk_"&amp;C131</f>
         <v>ssyk_333</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C131" s="1">
         <v>333</v>
@@ -4986,13 +4984,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_334</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C132" s="1">
         <v>334</v>
@@ -5001,13 +4999,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_335</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C133" s="1">
         <v>335</v>
@@ -5016,13 +5014,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_336</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C134" s="1">
         <v>336</v>
@@ -5031,13 +5029,13 @@
         <v>320</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_341</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C135" s="1">
         <v>341</v>
@@ -5046,13 +5044,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_342</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C136" s="1">
         <v>342</v>
@@ -5061,13 +5059,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_343</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C137" s="1">
         <v>343</v>
@@ -5076,13 +5074,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_344</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C138" s="1">
         <v>344</v>
@@ -5091,13 +5089,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_345</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C139" s="1">
         <v>345</v>
@@ -5106,13 +5104,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_351</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C140" s="1">
         <v>351</v>
@@ -5120,15 +5118,14 @@
       <c r="D140" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_352</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C141" s="1">
         <v>352</v>
@@ -5137,13 +5134,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_411</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C142" s="1">
         <v>411</v>
@@ -5152,13 +5149,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_421</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C143" s="1">
         <v>421</v>
@@ -5167,13 +5164,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_422</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C144" s="1">
         <v>422</v>
@@ -5182,13 +5179,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_431</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C145" s="1">
         <v>431</v>
@@ -5197,13 +5194,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_432</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C146" s="1">
         <v>432</v>
@@ -5212,13 +5209,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_441</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C147" s="1">
         <v>441</v>
@@ -5227,13 +5224,13 @@
         <v>566</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_442</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C148" s="1">
         <v>442</v>
@@ -5242,13 +5239,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_443</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C149" s="1">
         <v>443</v>
@@ -5257,13 +5254,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_511</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C150" s="1">
         <v>511</v>
@@ -5272,13 +5269,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_512</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C151" s="1">
         <v>512</v>
@@ -5287,13 +5284,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_513</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C152" s="1">
         <v>513</v>
@@ -5302,13 +5299,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_514</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C153" s="1">
         <v>514</v>
@@ -5317,13 +5314,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_515</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C154" s="1">
         <v>515</v>
@@ -5332,13 +5329,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_516</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C155" s="1">
         <v>516</v>
@@ -5347,13 +5344,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_521</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C156" s="1">
         <v>521</v>
@@ -5362,13 +5359,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_522</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C157" s="1">
         <v>522</v>
@@ -5377,13 +5374,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_523</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C158" s="1">
         <v>523</v>
@@ -5392,13 +5389,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_524</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C159" s="1">
         <v>524</v>
@@ -5406,15 +5403,14 @@
       <c r="D159" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_531</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C160" s="1">
         <v>531</v>
@@ -5423,13 +5419,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_532</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C161" s="1">
         <v>532</v>
@@ -5438,13 +5434,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_533</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C162" s="1">
         <v>533</v>
@@ -5453,13 +5449,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_534</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C163" s="1">
         <v>534</v>
@@ -5468,13 +5464,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_535</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C164" s="1">
         <v>535</v>
@@ -5483,13 +5479,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_541</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C165" s="1">
         <v>541</v>
@@ -5498,13 +5494,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_611</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C166" s="1">
         <v>611</v>
@@ -5513,13 +5509,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_612</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C167" s="1">
         <v>612</v>
@@ -5528,13 +5524,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_613</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C168" s="1">
         <v>613</v>
@@ -5543,13 +5539,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_621</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C169" s="1">
         <v>621</v>
@@ -5558,13 +5554,13 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_622</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C170" s="1">
         <v>622</v>
@@ -5573,13 +5569,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_711</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C171" s="1">
         <v>711</v>
@@ -5588,13 +5584,13 @@
         <v>365</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_712</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C172" s="1">
         <v>712</v>
@@ -5603,13 +5599,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_713</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C173" s="1">
         <v>713</v>
@@ -5618,13 +5614,13 @@
         <v>379</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_721</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C174" s="1">
         <v>721</v>
@@ -5633,13 +5629,13 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_722</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C175" s="1">
         <v>722</v>
@@ -5648,13 +5644,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_723</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C176" s="1">
         <v>723</v>
@@ -5662,15 +5658,14 @@
       <c r="D176" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_731</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C177" s="1">
         <v>731</v>
@@ -5678,15 +5673,14 @@
       <c r="D177" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_732</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C178" s="1">
         <v>732</v>
@@ -5695,13 +5689,13 @@
         <v>404</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_741</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C179" s="1">
         <v>741</v>
@@ -5709,15 +5703,14 @@
       <c r="D179" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_742</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C180" s="1">
         <v>742</v>
@@ -5726,13 +5719,13 @@
         <v>413</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_751</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C181" s="1">
         <v>751</v>
@@ -5741,13 +5734,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_752</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C182" s="1">
         <v>752</v>
@@ -5756,13 +5749,13 @@
         <v>415</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_753</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C183" s="1">
         <v>753</v>
@@ -5771,13 +5764,13 @@
         <v>419</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_761</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C184" s="1">
         <v>761</v>
@@ -5786,13 +5779,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_811</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C185" s="1">
         <v>811</v>
@@ -5801,13 +5794,13 @@
         <v>442</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_812</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C186" s="1">
         <v>812</v>
@@ -5816,13 +5809,13 @@
         <v>449</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_813</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C187" s="1">
         <v>813</v>
@@ -5831,13 +5824,13 @@
         <v>452</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_814</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C188" s="1">
         <v>814</v>
@@ -5845,15 +5838,14 @@
       <c r="D188" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_815</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C189" s="1">
         <v>815</v>
@@ -5862,13 +5854,13 @@
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_816</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C190" s="1">
         <v>816</v>
@@ -5877,13 +5869,13 @@
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_817</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C191" s="1">
         <v>817</v>
@@ -5892,13 +5884,13 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_818</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C192" s="1">
         <v>818</v>
@@ -5906,15 +5898,14 @@
       <c r="D192" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_819</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C193" s="1">
         <v>819</v>
@@ -5923,13 +5914,13 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ssyk_821</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C194" s="1">
         <v>821</v>
@@ -5938,13 +5929,13 @@
         <v>471</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
         <f t="shared" ref="A195:A258" si="3">"ssyk_"&amp;C195</f>
         <v>ssyk_831</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C195" s="1">
         <v>831</v>
@@ -5953,13 +5944,13 @@
         <v>477</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_832</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C196" s="1">
         <v>832</v>
@@ -5968,13 +5959,13 @@
         <v>480</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_833</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C197" s="1">
         <v>833</v>
@@ -5983,13 +5974,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_834</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C198" s="1">
         <v>834</v>
@@ -5998,13 +5989,13 @@
         <v>485</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_835</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C199" s="1">
         <v>835</v>
@@ -6012,15 +6003,14 @@
       <c r="D199" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_911</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C200" s="1">
         <v>911</v>
@@ -6029,13 +6019,13 @@
         <v>533</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_912</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C201" s="1">
         <v>912</v>
@@ -6044,13 +6034,13 @@
         <v>536</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_921</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C202" s="1">
         <v>921</v>
@@ -6059,13 +6049,13 @@
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_931</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C203" s="1">
         <v>931</v>
@@ -6074,13 +6064,13 @@
         <v>539</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_932</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C204" s="1">
         <v>932</v>
@@ -6089,13 +6079,13 @@
         <v>540</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_933</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C205" s="1">
         <v>933</v>
@@ -6104,13 +6094,13 @@
         <v>565</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_941</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C206" s="1">
         <v>941</v>
@@ -6119,13 +6109,13 @@
         <v>543</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_951</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C207" s="1">
         <v>951</v>
@@ -6134,13 +6124,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_952</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C208" s="1">
         <v>952</v>
@@ -6149,13 +6139,13 @@
         <v>547</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_961</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C209" s="1">
         <v>961</v>
@@ -6164,13 +6154,13 @@
         <v>549</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_962</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C210" s="1">
         <v>962</v>
@@ -6178,15 +6168,14 @@
       <c r="D210" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G210" s="3"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1111</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C211" s="1">
         <v>1111</v>
@@ -6195,13 +6184,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1112</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C212" s="1">
         <v>1112</v>
@@ -6210,13 +6199,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1113</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C213" s="1">
         <v>1113</v>
@@ -6225,13 +6214,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1120</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C214" s="1">
         <v>1120</v>
@@ -6240,13 +6229,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C215" s="1">
         <v>1211</v>
@@ -6255,13 +6244,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C216" s="1">
         <v>1212</v>
@@ -6270,13 +6259,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1221</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C217" s="1">
         <v>1221</v>
@@ -6285,13 +6274,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1222</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C218" s="1">
         <v>1222</v>
@@ -6300,13 +6289,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1230</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C219" s="1">
         <v>1230</v>
@@ -6315,13 +6304,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1241</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C220" s="1">
         <v>1241</v>
@@ -6330,13 +6319,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1242</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C221" s="1">
         <v>1242</v>
@@ -6345,13 +6334,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1251</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C222" s="1">
         <v>1251</v>
@@ -6360,13 +6349,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1252</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C223" s="1">
         <v>1252</v>
@@ -6375,13 +6364,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1291</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C224" s="1">
         <v>1291</v>
@@ -6390,13 +6379,13 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1292</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C225" s="1">
         <v>1292</v>
@@ -6405,13 +6394,13 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1311</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C226" s="1">
         <v>1311</v>
@@ -6420,13 +6409,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1312</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C227" s="1">
         <v>1312</v>
@@ -6435,13 +6424,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1321</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C228" s="1">
         <v>1321</v>
@@ -6450,13 +6439,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1322</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C229" s="1">
         <v>1322</v>
@@ -6465,13 +6454,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1331</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C230" s="1">
         <v>1331</v>
@@ -6480,13 +6469,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1332</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C231" s="1">
         <v>1332</v>
@@ -6495,13 +6484,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1341</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C232" s="1">
         <v>1341</v>
@@ -6510,13 +6499,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1342</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C233" s="1">
         <v>1342</v>
@@ -6525,13 +6514,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1351</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C234" s="1">
         <v>1351</v>
@@ -6540,13 +6529,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1352</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C235" s="1">
         <v>1352</v>
@@ -6555,13 +6544,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1361</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C236" s="1">
         <v>1361</v>
@@ -6570,13 +6559,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1362</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C237" s="1">
         <v>1362</v>
@@ -6584,15 +6573,14 @@
       <c r="D237" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F237" s="4"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1371</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C238" s="1">
         <v>1371</v>
@@ -6600,15 +6588,14 @@
       <c r="D238" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1372</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C239" s="1">
         <v>1372</v>
@@ -6616,15 +6603,14 @@
       <c r="D239" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ssyk_1380</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C240" s="1">
         <v>1380</v>
@@ -6639,7 +6625,7 @@
         <v>ssyk_1411</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C241" s="1">
         <v>1411</v>
@@ -6654,7 +6640,7 @@
         <v>ssyk_1412</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C242" s="1">
         <v>1412</v>
@@ -6669,7 +6655,7 @@
         <v>ssyk_1421</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C243" s="1">
         <v>1421</v>
@@ -6684,7 +6670,7 @@
         <v>ssyk_1422</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C244" s="1">
         <v>1422</v>
@@ -6699,7 +6685,7 @@
         <v>ssyk_1491</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C245" s="1">
         <v>1491</v>
@@ -6714,7 +6700,7 @@
         <v>ssyk_1492</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C246" s="1">
         <v>1492</v>
@@ -6729,7 +6715,7 @@
         <v>ssyk_1511</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C247" s="1">
         <v>1511</v>
@@ -6744,7 +6730,7 @@
         <v>ssyk_1512</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C248" s="1">
         <v>1512</v>
@@ -6759,7 +6745,7 @@
         <v>ssyk_1521</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C249" s="1">
         <v>1521</v>
@@ -6774,7 +6760,7 @@
         <v>ssyk_1522</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C250" s="1">
         <v>1522</v>
@@ -6789,7 +6775,7 @@
         <v>ssyk_1531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C251" s="1">
         <v>1531</v>
@@ -6804,7 +6790,7 @@
         <v>ssyk_1532</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C252" s="1">
         <v>1532</v>
@@ -6819,7 +6805,7 @@
         <v>ssyk_1540</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C253" s="1">
         <v>1540</v>
@@ -6834,7 +6820,7 @@
         <v>ssyk_1591</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C254" s="1">
         <v>1591</v>
@@ -6849,7 +6835,7 @@
         <v>ssyk_1592</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C255" s="1">
         <v>1592</v>
@@ -6864,7 +6850,7 @@
         <v>ssyk_1611</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C256" s="1">
         <v>1611</v>
@@ -6879,7 +6865,7 @@
         <v>ssyk_1612</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C257" s="1">
         <v>1612</v>
@@ -6894,7 +6880,7 @@
         <v>ssyk_1711</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C258" s="1">
         <v>1711</v>
@@ -6909,7 +6895,7 @@
         <v>ssyk_1712</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C259" s="1">
         <v>1712</v>
@@ -6924,7 +6910,7 @@
         <v>ssyk_1721</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C260" s="1">
         <v>1721</v>
@@ -6939,7 +6925,7 @@
         <v>ssyk_1722</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C261" s="1">
         <v>1722</v>
@@ -6954,7 +6940,7 @@
         <v>ssyk_1731</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C262" s="1">
         <v>1731</v>
@@ -6969,7 +6955,7 @@
         <v>ssyk_1732</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C263" s="1">
         <v>1732</v>
@@ -6984,7 +6970,7 @@
         <v>ssyk_1741</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C264" s="1">
         <v>1741</v>
@@ -6999,7 +6985,7 @@
         <v>ssyk_1742</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C265" s="1">
         <v>1742</v>
@@ -7014,7 +7000,7 @@
         <v>ssyk_1791</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C266" s="1">
         <v>1791</v>
@@ -7029,7 +7015,7 @@
         <v>ssyk_1792</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C267" s="1">
         <v>1792</v>
@@ -7044,7 +7030,7 @@
         <v>ssyk_2111</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C268" s="1">
         <v>2111</v>
@@ -7059,7 +7045,7 @@
         <v>ssyk_2112</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C269" s="1">
         <v>2112</v>
@@ -7074,7 +7060,7 @@
         <v>ssyk_2113</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C270" s="1">
         <v>2113</v>
@@ -7089,7 +7075,7 @@
         <v>ssyk_2114</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C271" s="1">
         <v>2114</v>
@@ -7104,7 +7090,7 @@
         <v>ssyk_2121</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C272" s="1">
         <v>2121</v>
@@ -7113,13 +7099,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2122</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C273" s="1">
         <v>2122</v>
@@ -7128,13 +7114,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2131</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C274" s="1">
         <v>2131</v>
@@ -7143,13 +7129,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2132</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C275" s="1">
         <v>2132</v>
@@ -7158,13 +7144,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2133</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C276" s="1">
         <v>2133</v>
@@ -7172,15 +7158,14 @@
       <c r="D276" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2134</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C277" s="1">
         <v>2134</v>
@@ -7189,13 +7174,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2135</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C278" s="1">
         <v>2135</v>
@@ -7204,13 +7189,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2141</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C279" s="1">
         <v>2141</v>
@@ -7219,13 +7204,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2142</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C280" s="1">
         <v>2142</v>
@@ -7234,13 +7219,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2143</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C281" s="1">
         <v>2143</v>
@@ -7249,13 +7234,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2144</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C282" s="1">
         <v>2144</v>
@@ -7264,13 +7249,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2145</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C283" s="1">
         <v>2145</v>
@@ -7279,13 +7264,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2146</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C284" s="1">
         <v>2146</v>
@@ -7294,13 +7279,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2149</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C285" s="1">
         <v>2149</v>
@@ -7309,13 +7294,13 @@
         <v>498</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2161</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C286" s="1">
         <v>2161</v>
@@ -7324,13 +7309,13 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2162</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C287" s="1">
         <v>2162</v>
@@ -7339,13 +7324,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ssyk_2163</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C288" s="1">
         <v>2163</v>
@@ -7360,7 +7345,7 @@
         <v>ssyk_2164</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C289" s="1">
         <v>2164</v>
@@ -7375,7 +7360,7 @@
         <v>ssyk_2171</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C290" s="1">
         <v>2171</v>
@@ -7390,7 +7375,7 @@
         <v>ssyk_2172</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C291" s="1">
         <v>2172</v>
@@ -7405,7 +7390,7 @@
         <v>ssyk_2173</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C292" s="1">
         <v>2173</v>
@@ -7420,7 +7405,7 @@
         <v>ssyk_2179</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C293" s="1">
         <v>2179</v>
@@ -7435,7 +7420,7 @@
         <v>ssyk_2181</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C294" s="1">
         <v>2181</v>
@@ -7450,7 +7435,7 @@
         <v>ssyk_2182</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C295" s="1">
         <v>2182</v>
@@ -7465,7 +7450,7 @@
         <v>ssyk_2183</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C296" s="1">
         <v>2183</v>
@@ -7480,7 +7465,7 @@
         <v>ssyk_2211</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C297" s="1">
         <v>2211</v>
@@ -7495,7 +7480,7 @@
         <v>ssyk_2212</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C298" s="1">
         <v>2212</v>
@@ -7510,7 +7495,7 @@
         <v>ssyk_2213</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C299" s="1">
         <v>2213</v>
@@ -7525,7 +7510,7 @@
         <v>ssyk_2219</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C300" s="1">
         <v>2219</v>
@@ -7540,7 +7525,7 @@
         <v>ssyk_2221</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C301" s="1">
         <v>2221</v>
@@ -7555,7 +7540,7 @@
         <v>ssyk_2222</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C302" s="1">
         <v>2222</v>
@@ -7570,7 +7555,7 @@
         <v>ssyk_2223</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C303" s="1">
         <v>2223</v>
@@ -7585,7 +7570,7 @@
         <v>ssyk_2224</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C304" s="1">
         <v>2224</v>
@@ -7600,7 +7585,7 @@
         <v>ssyk_2225</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C305" s="1">
         <v>2225</v>
@@ -7615,7 +7600,7 @@
         <v>ssyk_2226</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C306" s="1">
         <v>2226</v>
@@ -7630,7 +7615,7 @@
         <v>ssyk_2227</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C307" s="1">
         <v>2227</v>
@@ -7645,7 +7630,7 @@
         <v>ssyk_2228</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C308" s="1">
         <v>2228</v>
@@ -7660,7 +7645,7 @@
         <v>ssyk_2231</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C309" s="1">
         <v>2231</v>
@@ -7675,7 +7660,7 @@
         <v>ssyk_2232</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C310" s="1">
         <v>2232</v>
@@ -7690,7 +7675,7 @@
         <v>ssyk_2233</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C311" s="1">
         <v>2233</v>
@@ -7705,7 +7690,7 @@
         <v>ssyk_2234</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C312" s="1">
         <v>2234</v>
@@ -7720,7 +7705,7 @@
         <v>ssyk_2235</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C313" s="1">
         <v>2235</v>
@@ -7735,7 +7720,7 @@
         <v>ssyk_2239</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C314" s="1">
         <v>2239</v>
@@ -7750,7 +7735,7 @@
         <v>ssyk_2241</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C315" s="1">
         <v>2241</v>
@@ -7765,7 +7750,7 @@
         <v>ssyk_2242</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C316" s="1">
         <v>2242</v>
@@ -7780,7 +7765,7 @@
         <v>ssyk_2250</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C317" s="1">
         <v>2250</v>
@@ -7795,7 +7780,7 @@
         <v>ssyk_2260</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C318" s="1">
         <v>2260</v>
@@ -7810,7 +7795,7 @@
         <v>ssyk_2271</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C319" s="1">
         <v>2271</v>
@@ -7825,7 +7810,7 @@
         <v>ssyk_2272</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C320" s="1">
         <v>2272</v>
@@ -7840,7 +7825,7 @@
         <v>ssyk_2273</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C321" s="1">
         <v>2273</v>
@@ -7855,7 +7840,7 @@
         <v>ssyk_2281</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C322" s="1">
         <v>2281</v>
@@ -7870,7 +7855,7 @@
         <v>ssyk_2282</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C323" s="1">
         <v>2282</v>
@@ -7885,7 +7870,7 @@
         <v>ssyk_2283</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C324" s="1">
         <v>2283</v>
@@ -7900,7 +7885,7 @@
         <v>ssyk_2284</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C325" s="1">
         <v>2284</v>
@@ -7915,7 +7900,7 @@
         <v>ssyk_2289</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C326" s="1">
         <v>2289</v>
@@ -7930,7 +7915,7 @@
         <v>ssyk_2311</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C327" s="1">
         <v>2311</v>
@@ -7945,7 +7930,7 @@
         <v>ssyk_2312</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C328" s="1">
         <v>2312</v>
@@ -7960,7 +7945,7 @@
         <v>ssyk_2313</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C329" s="1">
         <v>2313</v>
@@ -7975,7 +7960,7 @@
         <v>ssyk_2314</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C330" s="1">
         <v>2314</v>
@@ -7990,7 +7975,7 @@
         <v>ssyk_2319</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C331" s="1">
         <v>2319</v>
@@ -8005,7 +7990,7 @@
         <v>ssyk_2320</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C332" s="1">
         <v>2320</v>
@@ -8020,7 +8005,7 @@
         <v>ssyk_2330</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C333" s="1">
         <v>2330</v>
@@ -8035,7 +8020,7 @@
         <v>ssyk_2341</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C334" s="1">
         <v>2341</v>
@@ -8050,7 +8035,7 @@
         <v>ssyk_2342</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C335" s="1">
         <v>2342</v>
@@ -8065,7 +8050,7 @@
         <v>ssyk_2343</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C336" s="1">
         <v>2343</v>
@@ -8074,13 +8059,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2351</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C337" s="1">
         <v>2351</v>
@@ -8089,13 +8074,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2352</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C338" s="1">
         <v>2352</v>
@@ -8104,13 +8089,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2359</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C339" s="1">
         <v>2359</v>
@@ -8119,13 +8104,13 @@
         <v>504</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2411</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C340" s="1">
         <v>2411</v>
@@ -8134,13 +8119,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2412</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C341" s="1">
         <v>2412</v>
@@ -8149,13 +8134,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2413</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C342" s="1">
         <v>2413</v>
@@ -8164,13 +8149,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2414</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C343" s="1">
         <v>2414</v>
@@ -8179,13 +8164,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2415</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C344" s="1">
         <v>2415</v>
@@ -8194,13 +8179,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2419</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C345" s="1">
         <v>2419</v>
@@ -8209,13 +8194,13 @@
         <v>505</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2421</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C346" s="1">
         <v>2421</v>
@@ -8224,13 +8209,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2422</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C347" s="1">
         <v>2422</v>
@@ -8238,15 +8223,14 @@
       <c r="D347" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G347" s="3"/>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2423</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C348" s="1">
         <v>2423</v>
@@ -8255,13 +8239,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2431</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C349" s="1">
         <v>2431</v>
@@ -8270,13 +8254,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2432</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C350" s="1">
         <v>2432</v>
@@ -8285,13 +8269,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2511</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C351" s="1">
         <v>2511</v>
@@ -8300,13 +8284,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2512</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C352" s="1">
         <v>2512</v>
@@ -8315,13 +8299,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2513</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C353" s="1">
         <v>2513</v>
@@ -8330,13 +8314,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2514</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C354" s="1">
         <v>2514</v>
@@ -8345,13 +8329,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2515</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C355" s="1">
         <v>2515</v>
@@ -8360,13 +8344,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2516</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C356" s="1">
         <v>2516</v>
@@ -8375,13 +8359,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2519</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C357" s="1">
         <v>2519</v>
@@ -8390,13 +8374,13 @@
         <v>506</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2611</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C358" s="1">
         <v>2611</v>
@@ -8405,13 +8389,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2612</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C359" s="1">
         <v>2612</v>
@@ -8420,13 +8404,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2613</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C360" s="1">
         <v>2613</v>
@@ -8435,13 +8419,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2614</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C361" s="1">
         <v>2614</v>
@@ -8450,13 +8434,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2615</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C362" s="1">
         <v>2615</v>
@@ -8465,13 +8449,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2619</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C363" s="1">
         <v>2619</v>
@@ -8480,13 +8464,13 @@
         <v>507</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2621</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C364" s="1">
         <v>2621</v>
@@ -8495,13 +8479,13 @@
         <v>301</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2622</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C365" s="1">
         <v>2622</v>
@@ -8510,13 +8494,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2623</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C366" s="1">
         <v>2623</v>
@@ -8524,15 +8508,14 @@
       <c r="D366" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G366" s="3"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2641</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C367" s="1">
         <v>2641</v>
@@ -8540,15 +8523,14 @@
       <c r="D367" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G367" s="3"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_2642</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C368" s="1">
         <v>2642</v>
@@ -8563,7 +8545,7 @@
         <v>ssyk_2643</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C369" s="1">
         <v>2643</v>
@@ -8578,7 +8560,7 @@
         <v>ssyk_2651</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C370" s="1">
         <v>2651</v>
@@ -8593,7 +8575,7 @@
         <v>ssyk_2652</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C371" s="1">
         <v>2652</v>
@@ -8608,7 +8590,7 @@
         <v>ssyk_2653</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C372" s="1">
         <v>2653</v>
@@ -8623,7 +8605,7 @@
         <v>ssyk_2654</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C373" s="1">
         <v>2654</v>
@@ -8638,7 +8620,7 @@
         <v>ssyk_2655</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C374" s="1">
         <v>2655</v>
@@ -8653,7 +8635,7 @@
         <v>ssyk_2661</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C375" s="1">
         <v>2661</v>
@@ -8668,7 +8650,7 @@
         <v>ssyk_2662</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C376" s="1">
         <v>2662</v>
@@ -8683,7 +8665,7 @@
         <v>ssyk_2663</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C377" s="1">
         <v>2663</v>
@@ -8698,7 +8680,7 @@
         <v>ssyk_2669</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C378" s="1">
         <v>2669</v>
@@ -8713,7 +8695,7 @@
         <v>ssyk_2671</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C379" s="1">
         <v>2671</v>
@@ -8728,7 +8710,7 @@
         <v>ssyk_2672</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C380" s="1">
         <v>2672</v>
@@ -8743,7 +8725,7 @@
         <v>ssyk_3111</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C381" s="1">
         <v>3111</v>
@@ -8758,7 +8740,7 @@
         <v>ssyk_3112</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C382" s="1">
         <v>3112</v>
@@ -8773,7 +8755,7 @@
         <v>ssyk_3113</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C383" s="1">
         <v>3113</v>
@@ -8788,7 +8770,7 @@
         <v>ssyk_3114</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C384" s="1">
         <v>3114</v>
@@ -8797,13 +8779,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_3115</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C385" s="1">
         <v>3115</v>
@@ -8812,13 +8794,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="str">
         <f t="shared" si="5"/>
         <v>ssyk_3116</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C386" s="1">
         <v>3116</v>
@@ -8827,13 +8809,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="str">
         <f t="shared" ref="A387:A450" si="6">"ssyk_"&amp;C387</f>
         <v>ssyk_3117</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C387" s="1">
         <v>3117</v>
@@ -8842,13 +8824,13 @@
         <v>361</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3119</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C388" s="1">
         <v>3119</v>
@@ -8857,13 +8839,13 @@
         <v>509</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3121</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C389" s="1">
         <v>3121</v>
@@ -8872,13 +8854,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3122</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C390" s="1">
         <v>3122</v>
@@ -8887,13 +8869,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3151</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C391" s="1">
         <v>3151</v>
@@ -8902,13 +8884,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3152</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C392" s="1">
         <v>3152</v>
@@ -8917,13 +8899,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3153</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C393" s="1">
         <v>3153</v>
@@ -8931,15 +8913,14 @@
       <c r="D393" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G393" s="3"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3154</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C394" s="1">
         <v>3154</v>
@@ -8948,13 +8929,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3155</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C395" s="1">
         <v>3155</v>
@@ -8963,13 +8944,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3211</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C396" s="1">
         <v>3211</v>
@@ -8978,13 +8959,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3212</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C397" s="1">
         <v>3212</v>
@@ -8993,13 +8974,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3213</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C398" s="1">
         <v>3213</v>
@@ -9008,13 +8989,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3214</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C399" s="1">
         <v>3214</v>
@@ -9023,13 +9004,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3215</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C400" s="1">
         <v>3215</v>
@@ -9044,7 +9025,7 @@
         <v>ssyk_3230</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C401" s="1">
         <v>3230</v>
@@ -9059,7 +9040,7 @@
         <v>ssyk_3240</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C402" s="1">
         <v>3240</v>
@@ -9074,7 +9055,7 @@
         <v>ssyk_3250</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C403" s="1">
         <v>3250</v>
@@ -9089,7 +9070,7 @@
         <v>ssyk_3311</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C404" s="1">
         <v>3311</v>
@@ -9104,7 +9085,7 @@
         <v>ssyk_3312</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C405" s="1">
         <v>3312</v>
@@ -9119,7 +9100,7 @@
         <v>ssyk_3313</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C406" s="1">
         <v>3313</v>
@@ -9134,7 +9115,7 @@
         <v>ssyk_3314</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C407" s="1">
         <v>3314</v>
@@ -9149,7 +9130,7 @@
         <v>ssyk_3321</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C408" s="1">
         <v>3321</v>
@@ -9164,7 +9145,7 @@
         <v>ssyk_3322</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C409" s="1">
         <v>3322</v>
@@ -9179,7 +9160,7 @@
         <v>ssyk_3323</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C410" s="1">
         <v>3323</v>
@@ -9194,7 +9175,7 @@
         <v>ssyk_3324</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C411" s="1">
         <v>3324</v>
@@ -9209,7 +9190,7 @@
         <v>ssyk_3331</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C412" s="1">
         <v>3331</v>
@@ -9224,7 +9205,7 @@
         <v>ssyk_3332</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C413" s="1">
         <v>3332</v>
@@ -9239,7 +9220,7 @@
         <v>ssyk_3333</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C414" s="1">
         <v>3333</v>
@@ -9254,7 +9235,7 @@
         <v>ssyk_3334</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C415" s="1">
         <v>3334</v>
@@ -9269,7 +9250,7 @@
         <v>ssyk_3335</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C416" s="1">
         <v>3335</v>
@@ -9278,13 +9259,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3339</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C417" s="1">
         <v>3339</v>
@@ -9293,13 +9274,13 @@
         <v>510</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3341</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C418" s="1">
         <v>3341</v>
@@ -9308,13 +9289,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3342</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C419" s="1">
         <v>3342</v>
@@ -9323,13 +9304,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3343</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C420" s="1">
         <v>3343</v>
@@ -9338,13 +9319,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3351</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C421" s="1">
         <v>3351</v>
@@ -9353,13 +9334,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3352</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C422" s="1">
         <v>3352</v>
@@ -9368,13 +9349,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3353</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C423" s="1">
         <v>3353</v>
@@ -9383,13 +9364,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3354</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C424" s="1">
         <v>3354</v>
@@ -9398,13 +9379,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3355</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C425" s="1">
         <v>3355</v>
@@ -9413,13 +9394,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3359</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C426" s="1">
         <v>3359</v>
@@ -9428,13 +9409,13 @@
         <v>511</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3360</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C427" s="1">
         <v>3360</v>
@@ -9442,15 +9423,14 @@
       <c r="D427" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="G427" s="4"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3411</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C428" s="1">
         <v>3411</v>
@@ -9459,13 +9439,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3412</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C429" s="1">
         <v>3412</v>
@@ -9474,13 +9454,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3421</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C430" s="1">
         <v>3421</v>
@@ -9489,13 +9469,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3422</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C431" s="1">
         <v>3422</v>
@@ -9504,13 +9484,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3423</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C432" s="1">
         <v>3423</v>
@@ -9519,13 +9499,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3424</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C433" s="1">
         <v>3424</v>
@@ -9534,13 +9514,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3431</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C434" s="1">
         <v>3431</v>
@@ -9549,13 +9529,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3432</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C435" s="1">
         <v>3432</v>
@@ -9564,13 +9544,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3433</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C436" s="1">
         <v>3433</v>
@@ -9579,13 +9559,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3439</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C437" s="1">
         <v>3439</v>
@@ -9594,13 +9574,13 @@
         <v>512</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3441</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C438" s="1">
         <v>3441</v>
@@ -9609,13 +9589,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3449</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C439" s="1">
         <v>3449</v>
@@ -9623,15 +9603,14 @@
       <c r="D439" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="G439" s="4"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3451</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C440" s="1">
         <v>3451</v>
@@ -9640,13 +9619,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3452</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C441" s="1">
         <v>3452</v>
@@ -9655,13 +9634,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3511</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C442" s="1">
         <v>3511</v>
@@ -9670,13 +9649,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3512</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C443" s="1">
         <v>3512</v>
@@ -9685,13 +9664,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3513</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C444" s="1">
         <v>3513</v>
@@ -9700,13 +9679,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3514</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C445" s="1">
         <v>3514</v>
@@ -9715,13 +9694,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3515</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C446" s="1">
         <v>3515</v>
@@ -9730,13 +9709,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3521</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C447" s="1">
         <v>3521</v>
@@ -9745,13 +9724,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_3522</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C448" s="1">
         <v>3522</v>
@@ -9760,13 +9739,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_4111</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C449" s="1">
         <v>4111</v>
@@ -9775,13 +9754,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="str">
         <f t="shared" si="6"/>
         <v>ssyk_4112</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C450" s="1">
         <v>4112</v>
@@ -9789,15 +9768,14 @@
       <c r="D450" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G450" s="3"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="str">
         <f t="shared" ref="A451:A514" si="7">"ssyk_"&amp;C451</f>
         <v>ssyk_4113</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C451" s="1">
         <v>4113</v>
@@ -9806,13 +9784,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4114</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C452" s="1">
         <v>4114</v>
@@ -9820,15 +9798,14 @@
       <c r="D452" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G452" s="4"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4115</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C453" s="1">
         <v>4115</v>
@@ -9837,13 +9814,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4116</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C454" s="1">
         <v>4116</v>
@@ -9852,13 +9829,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4117</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C455" s="1">
         <v>4117</v>
@@ -9866,15 +9843,14 @@
       <c r="D455" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="F455" s="3"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4119</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C456" s="1">
         <v>4119</v>
@@ -9882,15 +9858,14 @@
       <c r="D456" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="G456" s="3"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4211</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C457" s="1">
         <v>4211</v>
@@ -9898,15 +9873,14 @@
       <c r="D457" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G457" s="3"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4212</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C458" s="1">
         <v>4212</v>
@@ -9914,15 +9888,14 @@
       <c r="D458" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G458" s="3"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4221</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C459" s="1">
         <v>4221</v>
@@ -9930,15 +9903,14 @@
       <c r="D459" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G459" s="3"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4222</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C460" s="1">
         <v>4222</v>
@@ -9947,13 +9919,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4223</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C461" s="1">
         <v>4223</v>
@@ -9962,13 +9934,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4224</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C462" s="1">
         <v>4224</v>
@@ -9977,13 +9949,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4225</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C463" s="1">
         <v>4225</v>
@@ -9992,13 +9964,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4226</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C464" s="1">
         <v>4226</v>
@@ -10007,13 +9979,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4321</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C465" s="1">
         <v>4321</v>
@@ -10022,13 +9994,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4322</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C466" s="1">
         <v>4322</v>
@@ -10037,13 +10009,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4323</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C467" s="1">
         <v>4323</v>
@@ -10052,13 +10024,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4410</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C468" s="1">
         <v>4410</v>
@@ -10067,13 +10039,13 @@
         <v>566</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4420</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C469" s="1">
         <v>4420</v>
@@ -10082,13 +10054,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_4430</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C470" s="1">
         <v>4430</v>
@@ -10097,13 +10069,13 @@
         <v>556</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5111</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C471" s="1">
         <v>5111</v>
@@ -10112,13 +10084,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5112</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C472" s="1">
         <v>5112</v>
@@ -10127,13 +10099,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5113</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C473" s="1">
         <v>5113</v>
@@ -10142,13 +10114,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5120</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C474" s="1">
         <v>5120</v>
@@ -10157,13 +10129,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5131</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C475" s="1">
         <v>5131</v>
@@ -10172,13 +10144,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5132</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C476" s="1">
         <v>5132</v>
@@ -10187,13 +10159,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5141</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C477" s="1">
         <v>5141</v>
@@ -10202,13 +10174,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5142</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C478" s="1">
         <v>5142</v>
@@ -10216,15 +10188,14 @@
       <c r="D478" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G478" s="4"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5143</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C479" s="1">
         <v>5143</v>
@@ -10233,13 +10204,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5144</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C480" s="1">
         <v>5144</v>
@@ -10248,13 +10219,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5149</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C481" s="1">
         <v>5149</v>
@@ -10263,13 +10234,13 @@
         <v>515</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5151</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C482" s="1">
         <v>5151</v>
@@ -10278,13 +10249,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5152</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C483" s="1">
         <v>5152</v>
@@ -10293,13 +10264,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5161</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C484" s="1">
         <v>5161</v>
@@ -10308,13 +10279,13 @@
         <v>324</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5169</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C485" s="1">
         <v>5169</v>
@@ -10323,13 +10294,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5221</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C486" s="1">
         <v>5221</v>
@@ -10338,13 +10309,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5222</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C487" s="1">
         <v>5222</v>
@@ -10353,13 +10324,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5223</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C488" s="1">
         <v>5223</v>
@@ -10368,13 +10339,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5224</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C489" s="1">
         <v>5224</v>
@@ -10383,13 +10354,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5225</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C490" s="1">
         <v>5225</v>
@@ -10398,13 +10369,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5226</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C491" s="1">
         <v>5226</v>
@@ -10412,15 +10383,14 @@
       <c r="D491" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="G491" s="3"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5227</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C492" s="1">
         <v>5227</v>
@@ -10429,13 +10399,13 @@
         <v>363</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5230</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C493" s="1">
         <v>5230</v>
@@ -10444,13 +10414,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5241</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C494" s="1">
         <v>5241</v>
@@ -10459,13 +10429,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5242</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C495" s="1">
         <v>5242</v>
@@ -10474,13 +10444,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5311</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C496" s="1">
         <v>5311</v>
@@ -10489,13 +10459,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5312</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C497" s="1">
         <v>5312</v>
@@ -10504,13 +10474,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5321</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C498" s="1">
         <v>5321</v>
@@ -10519,13 +10489,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5322</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C499" s="1">
         <v>5322</v>
@@ -10534,13 +10504,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5323</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C500" s="1">
         <v>5323</v>
@@ -10549,13 +10519,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5324</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C501" s="1">
         <v>5324</v>
@@ -10564,13 +10534,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5325</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C502" s="1">
         <v>5325</v>
@@ -10579,13 +10549,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5326</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C503" s="1">
         <v>5326</v>
@@ -10594,13 +10564,13 @@
         <v>326</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5330</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C504" s="1">
         <v>5330</v>
@@ -10609,13 +10579,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5341</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C505" s="1">
         <v>5341</v>
@@ -10624,13 +10594,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5342</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C506" s="1">
         <v>5342</v>
@@ -10638,15 +10608,14 @@
       <c r="D506" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G506" s="3"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5343</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C507" s="1">
         <v>5343</v>
@@ -10654,15 +10623,14 @@
       <c r="D507" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G507" s="3"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5349</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C508" s="1">
         <v>5349</v>
@@ -10671,13 +10639,13 @@
         <v>516</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5350</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C509" s="1">
         <v>5350</v>
@@ -10686,13 +10654,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5411</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C510" s="1">
         <v>5411</v>
@@ -10701,13 +10669,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5412</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C511" s="1">
         <v>5412</v>
@@ -10716,13 +10684,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5413</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C512" s="1">
         <v>5413</v>
@@ -10731,13 +10699,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5414</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C513" s="1">
         <v>5414</v>
@@ -10746,13 +10714,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="str">
         <f t="shared" si="7"/>
         <v>ssyk_5419</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C514" s="1">
         <v>5419</v>
@@ -10761,13 +10729,13 @@
         <v>517</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="str">
         <f t="shared" ref="A515:A578" si="8">"ssyk_"&amp;C515</f>
         <v>ssyk_6111</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C515" s="1">
         <v>6111</v>
@@ -10776,13 +10744,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6112</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C516" s="1">
         <v>6112</v>
@@ -10791,13 +10759,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6113</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C517" s="1">
         <v>6113</v>
@@ -10806,13 +10774,13 @@
         <v>331</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6121</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C518" s="1">
         <v>6121</v>
@@ -10821,13 +10789,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6122</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C519" s="1">
         <v>6122</v>
@@ -10836,13 +10804,13 @@
         <v>334</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6129</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C520" s="1">
         <v>6129</v>
@@ -10851,13 +10819,13 @@
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6130</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C521" s="1">
         <v>6130</v>
@@ -10866,13 +10834,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6210</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C522" s="1">
         <v>6210</v>
@@ -10880,15 +10848,14 @@
       <c r="D522" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="H522" s="3"/>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6221</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C523" s="1">
         <v>6221</v>
@@ -10897,13 +10864,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_6222</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C524" s="1">
         <v>6222</v>
@@ -10912,13 +10879,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_7111</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C525" s="1">
         <v>7111</v>
@@ -10927,13 +10894,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_7112</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C526" s="1">
         <v>7112</v>
@@ -10942,13 +10909,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_7113</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C527" s="1">
         <v>7113</v>
@@ -10957,13 +10924,13 @@
         <v>368</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="str">
         <f t="shared" si="8"/>
         <v>ssyk_7114</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C528" s="1">
         <v>7114</v>
@@ -10978,7 +10945,7 @@
         <v>ssyk_7115</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C529" s="1">
         <v>7115</v>
@@ -10993,7 +10960,7 @@
         <v>ssyk_7116</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C530" s="1">
         <v>7116</v>
@@ -11008,7 +10975,7 @@
         <v>ssyk_7119</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C531" s="1">
         <v>7119</v>
@@ -11023,7 +10990,7 @@
         <v>ssyk_7121</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C532" s="1">
         <v>7121</v>
@@ -11038,7 +11005,7 @@
         <v>ssyk_7122</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C533" s="1">
         <v>7122</v>
@@ -11053,7 +11020,7 @@
         <v>ssyk_7123</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C534" s="1">
         <v>7123</v>
@@ -11068,7 +11035,7 @@
         <v>ssyk_7124</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C535" s="1">
         <v>7124</v>
@@ -11083,7 +11050,7 @@
         <v>ssyk_7125</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C536" s="1">
         <v>7125</v>
@@ -11098,7 +11065,7 @@
         <v>ssyk_7126</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C537" s="1">
         <v>7126</v>
@@ -11113,7 +11080,7 @@
         <v>ssyk_7131</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C538" s="1">
         <v>7131</v>
@@ -11128,7 +11095,7 @@
         <v>ssyk_7132</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C539" s="1">
         <v>7132</v>
@@ -11143,7 +11110,7 @@
         <v>ssyk_7133</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C540" s="1">
         <v>7133</v>
@@ -11158,7 +11125,7 @@
         <v>ssyk_7134</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C541" s="1">
         <v>7134</v>
@@ -11173,7 +11140,7 @@
         <v>ssyk_7211</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C542" s="1">
         <v>7211</v>
@@ -11188,7 +11155,7 @@
         <v>ssyk_7212</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C543" s="1">
         <v>7212</v>
@@ -11203,7 +11170,7 @@
         <v>ssyk_7213</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C544" s="1">
         <v>7213</v>
@@ -11218,7 +11185,7 @@
         <v>ssyk_7214</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C545" s="1">
         <v>7214</v>
@@ -11233,7 +11200,7 @@
         <v>ssyk_7215</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C546" s="1">
         <v>7215</v>
@@ -11248,7 +11215,7 @@
         <v>ssyk_7221</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C547" s="1">
         <v>7221</v>
@@ -11263,7 +11230,7 @@
         <v>ssyk_7222</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C548" s="1">
         <v>7222</v>
@@ -11278,7 +11245,7 @@
         <v>ssyk_7223</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C549" s="1">
         <v>7223</v>
@@ -11293,7 +11260,7 @@
         <v>ssyk_7224</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C550" s="1">
         <v>7224</v>
@@ -11308,7 +11275,7 @@
         <v>ssyk_7231</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C551" s="1">
         <v>7231</v>
@@ -11323,7 +11290,7 @@
         <v>ssyk_7232</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C552" s="1">
         <v>7232</v>
@@ -11338,7 +11305,7 @@
         <v>ssyk_7233</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C553" s="1">
         <v>7233</v>
@@ -11353,7 +11320,7 @@
         <v>ssyk_7311</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C554" s="1">
         <v>7311</v>
@@ -11368,7 +11335,7 @@
         <v>ssyk_7312</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C555" s="1">
         <v>7312</v>
@@ -11383,7 +11350,7 @@
         <v>ssyk_7319</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C556" s="1">
         <v>7319</v>
@@ -11398,7 +11365,7 @@
         <v>ssyk_7321</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C557" s="1">
         <v>7321</v>
@@ -11413,7 +11380,7 @@
         <v>ssyk_7322</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C558" s="1">
         <v>7322</v>
@@ -11428,7 +11395,7 @@
         <v>ssyk_7323</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C559" s="1">
         <v>7323</v>
@@ -11443,7 +11410,7 @@
         <v>ssyk_7411</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C560" s="1">
         <v>7411</v>
@@ -11458,7 +11425,7 @@
         <v>ssyk_7412</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C561" s="1">
         <v>7412</v>
@@ -11473,7 +11440,7 @@
         <v>ssyk_7413</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C562" s="1">
         <v>7413</v>
@@ -11488,7 +11455,7 @@
         <v>ssyk_7420</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C563" s="1">
         <v>7420</v>
@@ -11503,7 +11470,7 @@
         <v>ssyk_7521</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C564" s="1">
         <v>7521</v>
@@ -11518,7 +11485,7 @@
         <v>ssyk_7522</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C565" s="1">
         <v>7522</v>
@@ -11533,7 +11500,7 @@
         <v>ssyk_7523</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C566" s="1">
         <v>7523</v>
@@ -11548,7 +11515,7 @@
         <v>ssyk_7531</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C567" s="1">
         <v>7531</v>
@@ -11563,7 +11530,7 @@
         <v>ssyk_7532</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C568" s="1">
         <v>7532</v>
@@ -11578,7 +11545,7 @@
         <v>ssyk_7533</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C569" s="1">
         <v>7533</v>
@@ -11593,7 +11560,7 @@
         <v>ssyk_7534</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C570" s="1">
         <v>7534</v>
@@ -11608,7 +11575,7 @@
         <v>ssyk_7611</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C571" s="1">
         <v>7611</v>
@@ -11623,7 +11590,7 @@
         <v>ssyk_7612</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C572" s="1">
         <v>7612</v>
@@ -11638,7 +11605,7 @@
         <v>ssyk_7613</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C573" s="1">
         <v>7613</v>
@@ -11653,7 +11620,7 @@
         <v>ssyk_7619</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C574" s="1">
         <v>7619</v>
@@ -11668,7 +11635,7 @@
         <v>ssyk_8111</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C575" s="1">
         <v>8111</v>
@@ -11683,7 +11650,7 @@
         <v>ssyk_8112</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C576" s="1">
         <v>8112</v>
@@ -11698,7 +11665,7 @@
         <v>ssyk_8113</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C577" s="1">
         <v>8113</v>
@@ -11713,7 +11680,7 @@
         <v>ssyk_8114</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C578" s="1">
         <v>8114</v>
@@ -11728,7 +11695,7 @@
         <v>ssyk_8115</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C579" s="1">
         <v>8115</v>
@@ -11743,7 +11710,7 @@
         <v>ssyk_8116</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C580" s="1">
         <v>8116</v>
@@ -11758,7 +11725,7 @@
         <v>ssyk_8121</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C581" s="1">
         <v>8121</v>
@@ -11773,7 +11740,7 @@
         <v>ssyk_8122</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C582" s="1">
         <v>8122</v>
@@ -11788,7 +11755,7 @@
         <v>ssyk_8129</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C583" s="1">
         <v>8129</v>
@@ -11803,7 +11770,7 @@
         <v>ssyk_8131</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C584" s="1">
         <v>8131</v>
@@ -11818,7 +11785,7 @@
         <v>ssyk_8132</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C585" s="1">
         <v>8132</v>
@@ -11833,7 +11800,7 @@
         <v>ssyk_8141</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C586" s="1">
         <v>8141</v>
@@ -11848,7 +11815,7 @@
         <v>ssyk_8142</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C587" s="1">
         <v>8142</v>
@@ -11863,7 +11830,7 @@
         <v>ssyk_8143</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C588" s="1">
         <v>8143</v>
@@ -11878,7 +11845,7 @@
         <v>ssyk_8151</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C589" s="1">
         <v>8151</v>
@@ -11893,7 +11860,7 @@
         <v>ssyk_8159</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C590" s="1">
         <v>8159</v>
@@ -11908,7 +11875,7 @@
         <v>ssyk_8161</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C591" s="1">
         <v>8161</v>
@@ -11923,7 +11890,7 @@
         <v>ssyk_8162</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C592" s="1">
         <v>8162</v>
@@ -11938,7 +11905,7 @@
         <v>ssyk_8163</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C593" s="1">
         <v>8163</v>
@@ -11953,7 +11920,7 @@
         <v>ssyk_8169</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C594" s="1">
         <v>8169</v>
@@ -11968,7 +11935,7 @@
         <v>ssyk_8171</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C595" s="1">
         <v>8171</v>
@@ -11983,7 +11950,7 @@
         <v>ssyk_8172</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C596" s="1">
         <v>8172</v>
@@ -11998,7 +11965,7 @@
         <v>ssyk_8173</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C597" s="1">
         <v>8173</v>
@@ -12013,7 +11980,7 @@
         <v>ssyk_8174</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C598" s="1">
         <v>8174</v>
@@ -12028,7 +11995,7 @@
         <v>ssyk_8181</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C599" s="1">
         <v>8181</v>
@@ -12043,7 +12010,7 @@
         <v>ssyk_8189</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C600" s="1">
         <v>8189</v>
@@ -12058,7 +12025,7 @@
         <v>ssyk_8191</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C601" s="1">
         <v>8191</v>
@@ -12073,7 +12040,7 @@
         <v>ssyk_8192</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C602" s="1">
         <v>8192</v>
@@ -12088,7 +12055,7 @@
         <v>ssyk_8193</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C603" s="1">
         <v>8193</v>
@@ -12103,7 +12070,7 @@
         <v>ssyk_8199</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C604" s="1">
         <v>8199</v>
@@ -12118,7 +12085,7 @@
         <v>ssyk_8211</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C605" s="1">
         <v>8211</v>
@@ -12133,7 +12100,7 @@
         <v>ssyk_8212</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C606" s="1">
         <v>8212</v>
@@ -12148,7 +12115,7 @@
         <v>ssyk_8213</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C607" s="1">
         <v>8213</v>
@@ -12163,7 +12130,7 @@
         <v>ssyk_8214</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C608" s="1">
         <v>8214</v>
@@ -12178,7 +12145,7 @@
         <v>ssyk_8219</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C609" s="1">
         <v>8219</v>
@@ -12193,7 +12160,7 @@
         <v>ssyk_8311</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C610" s="1">
         <v>8311</v>
@@ -12208,7 +12175,7 @@
         <v>ssyk_8312</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C611" s="1">
         <v>8312</v>
@@ -12223,7 +12190,7 @@
         <v>ssyk_8321</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C612" s="1">
         <v>8321</v>
@@ -12238,7 +12205,7 @@
         <v>ssyk_8329</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C613" s="1">
         <v>8329</v>
@@ -12253,7 +12220,7 @@
         <v>ssyk_8331</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C614" s="1">
         <v>8331</v>
@@ -12268,7 +12235,7 @@
         <v>ssyk_8332</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C615" s="1">
         <v>8332</v>
@@ -12283,7 +12250,7 @@
         <v>ssyk_8341</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C616" s="1">
         <v>8341</v>
@@ -12298,7 +12265,7 @@
         <v>ssyk_8342</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C617" s="1">
         <v>8342</v>
@@ -12313,7 +12280,7 @@
         <v>ssyk_8343</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C618" s="1">
         <v>8343</v>
@@ -12328,7 +12295,7 @@
         <v>ssyk_8344</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C619" s="1">
         <v>8344</v>
@@ -12343,7 +12310,7 @@
         <v>ssyk_8350</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C620" s="1">
         <v>8350</v>
@@ -12358,7 +12325,7 @@
         <v>ssyk_9111</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C621" s="1">
         <v>9111</v>
@@ -12373,7 +12340,7 @@
         <v>ssyk_9119</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C622" s="1">
         <v>9119</v>
@@ -12388,7 +12355,7 @@
         <v>ssyk_9120</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C623" s="1">
         <v>9120</v>
@@ -12403,7 +12370,7 @@
         <v>ssyk_9210</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C624" s="1">
         <v>9210</v>
@@ -12418,7 +12385,7 @@
         <v>ssyk_9310</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C625" s="1">
         <v>9310</v>
@@ -12433,7 +12400,7 @@
         <v>ssyk_9320</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C626" s="1">
         <v>9320</v>
@@ -12448,7 +12415,7 @@
         <v>ssyk_9331</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C627" s="1">
         <v>9331</v>
@@ -12463,7 +12430,7 @@
         <v>ssyk_9332</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C628" s="1">
         <v>9332</v>
@@ -12478,7 +12445,7 @@
         <v>ssyk_9411</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C629" s="1">
         <v>9411</v>
@@ -12493,7 +12460,7 @@
         <v>ssyk_9412</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C630" s="1">
         <v>9412</v>
@@ -12508,7 +12475,7 @@
         <v>ssyk_9413</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C631" s="1">
         <v>9413</v>
@@ -12523,7 +12490,7 @@
         <v>ssyk_9520</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C632" s="1">
         <v>9520</v>
@@ -12538,7 +12505,7 @@
         <v>ssyk_9610</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C633" s="1">
         <v>9610</v>
@@ -12553,7 +12520,7 @@
         <v>ssyk_9621</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C634" s="1">
         <v>9621</v>
@@ -12568,7 +12535,7 @@
         <v>ssyk_9622</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C635" s="1">
         <v>9622</v>
@@ -12583,7 +12550,7 @@
         <v>ssyk_9629</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C636" s="1">
         <v>9629</v>
@@ -12598,7 +12565,7 @@
         <v>ssyk_0</v>
       </c>
       <c r="C637" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D637" s="10" t="s">
         <v>9</v>
@@ -12610,10 +12577,10 @@
         <v>ssyk_01</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C638" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D638" s="10" t="s">
         <v>559</v>
@@ -12625,10 +12592,10 @@
         <v>ssyk_011</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C639" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D639" s="10" t="s">
         <v>559</v>
@@ -12640,10 +12607,10 @@
         <v>ssyk_0110</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C640" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D640" s="10" t="s">
         <v>559</v>
@@ -12655,10 +12622,10 @@
         <v>ssyk_02</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C641" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D641" s="10" t="s">
         <v>560</v>
@@ -12670,10 +12637,10 @@
         <v>ssyk_021</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C642" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D642" s="10" t="s">
         <v>560</v>
@@ -12685,10 +12652,10 @@
         <v>ssyk_03</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C643" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D643" s="10" t="s">
         <v>561</v>
@@ -12700,10 +12667,10 @@
         <v>ssyk_031</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C644" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D644" s="10" t="s">
         <v>561</v>
@@ -12803,10 +12770,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>834</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
